--- a/assets/file_for_reference/N5Words.xlsx
+++ b/assets/file_for_reference/N5Words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung\Documents\PANDASAPPS\PandasJp\assets\file_for_reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung\Documents\PANDASAPPS\PandasJp\assets\file_for_reference\word\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575A089-D6B4-4C52-93B4-4AC6F4107D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A566DD5-88D8-48AA-B112-10DD50E91900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="3585" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6533,11 +6533,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6843,10 +6844,13 @@
   <dimension ref="A1:G748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D748"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="51.3984375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -6891,7 +6895,7 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6915,7 +6919,7 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6939,7 +6943,7 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6963,7 +6967,7 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6987,7 +6991,7 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7011,7 +7015,7 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7035,7 +7039,7 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7059,7 +7063,7 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7083,7 +7087,7 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7107,7 +7111,7 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7131,7 +7135,7 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7155,7 +7159,7 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7179,7 +7183,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7203,7 +7207,7 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7227,7 +7231,7 @@
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7251,7 +7255,7 @@
       <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7275,7 +7279,7 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7299,7 +7303,7 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7323,7 +7327,7 @@
       <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7347,7 +7351,7 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7371,7 +7375,7 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7395,7 +7399,7 @@
       <c r="F23" t="s">
         <v>76</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7419,7 +7423,7 @@
       <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7443,7 +7447,7 @@
       <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -7467,7 +7471,7 @@
       <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7491,7 +7495,7 @@
       <c r="F27" t="s">
         <v>89</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7515,7 +7519,7 @@
       <c r="F28" t="s">
         <v>92</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7539,7 +7543,7 @@
       <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -7563,7 +7567,7 @@
       <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7587,7 +7591,7 @@
       <c r="F31" t="s">
         <v>102</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7611,7 +7615,7 @@
       <c r="F32" t="s">
         <v>106</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7635,7 +7639,7 @@
       <c r="F33" t="s">
         <v>110</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7659,7 +7663,7 @@
       <c r="F34" t="s">
         <v>114</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7683,7 +7687,7 @@
       <c r="F35" t="s">
         <v>117</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7707,7 +7711,7 @@
       <c r="F36" t="s">
         <v>117</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7731,7 +7735,7 @@
       <c r="F37" t="s">
         <v>124</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7755,7 +7759,7 @@
       <c r="F38" t="s">
         <v>128</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7779,7 +7783,7 @@
       <c r="F39" t="s">
         <v>128</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7803,7 +7807,7 @@
       <c r="F40" t="s">
         <v>134</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7827,7 +7831,7 @@
       <c r="F41" t="s">
         <v>134</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7851,7 +7855,7 @@
       <c r="F42" t="s">
         <v>141</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7875,7 +7879,7 @@
       <c r="F43" t="s">
         <v>144</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7899,7 +7903,7 @@
       <c r="F44" t="s">
         <v>146</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7923,7 +7927,7 @@
       <c r="F45" t="s">
         <v>146</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7947,7 +7951,7 @@
       <c r="F46" t="s">
         <v>151</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7971,7 +7975,7 @@
       <c r="F47" t="s">
         <v>151</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7995,7 +7999,7 @@
       <c r="F48" t="s">
         <v>151</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8019,7 +8023,7 @@
       <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -8043,7 +8047,7 @@
       <c r="F50" t="s">
         <v>165</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8067,7 +8071,7 @@
       <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -8091,7 +8095,7 @@
       <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8115,7 +8119,7 @@
       <c r="F53" t="s">
         <v>175</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8139,7 +8143,7 @@
       <c r="F54" t="s">
         <v>18</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8163,7 +8167,7 @@
       <c r="F55" t="s">
         <v>14</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8187,7 +8191,7 @@
       <c r="F56" t="s">
         <v>14</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8211,7 +8215,7 @@
       <c r="F57" t="s">
         <v>14</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -8235,7 +8239,7 @@
       <c r="F58" t="s">
         <v>25</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8259,7 +8263,7 @@
       <c r="F59" t="s">
         <v>14</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8283,7 +8287,7 @@
       <c r="F60" t="s">
         <v>14</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8307,7 +8311,7 @@
       <c r="F61" t="s">
         <v>14</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8331,7 +8335,7 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8355,7 +8359,7 @@
       <c r="F63" t="s">
         <v>14</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8379,7 +8383,7 @@
       <c r="F64" t="s">
         <v>208</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8403,7 +8407,7 @@
       <c r="F65" t="s">
         <v>67</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8427,7 +8431,7 @@
       <c r="F66" t="s">
         <v>14</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -8451,7 +8455,7 @@
       <c r="F67" t="s">
         <v>208</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8475,7 +8479,7 @@
       <c r="F68" t="s">
         <v>219</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8499,7 +8503,7 @@
       <c r="F69" t="s">
         <v>14</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -8523,7 +8527,7 @@
       <c r="F70" t="s">
         <v>14</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8547,7 +8551,7 @@
       <c r="F71" t="s">
         <v>14</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8571,7 +8575,7 @@
       <c r="F72" t="s">
         <v>14</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8595,7 +8599,7 @@
       <c r="F73" t="s">
         <v>208</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8619,7 +8623,7 @@
       <c r="F74" t="s">
         <v>14</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8643,7 +8647,7 @@
       <c r="F75" t="s">
         <v>14</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -8667,7 +8671,7 @@
       <c r="F76" t="s">
         <v>14</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8691,7 +8695,7 @@
       <c r="F77" t="s">
         <v>246</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8715,7 +8719,7 @@
       <c r="F78" t="s">
         <v>18</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -8739,7 +8743,7 @@
       <c r="F79" t="s">
         <v>18</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8763,7 +8767,7 @@
       <c r="F80" t="s">
         <v>18</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -8787,7 +8791,7 @@
       <c r="F81" t="s">
         <v>175</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -8811,7 +8815,7 @@
       <c r="F82" t="s">
         <v>259</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -8835,7 +8839,7 @@
       <c r="F83" t="s">
         <v>14</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -8859,7 +8863,7 @@
       <c r="F84" t="s">
         <v>266</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -8883,7 +8887,7 @@
       <c r="F85" t="s">
         <v>270</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8907,7 +8911,7 @@
       <c r="F86" t="s">
         <v>270</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8931,7 +8935,7 @@
       <c r="F87" t="s">
         <v>276</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8955,7 +8959,7 @@
       <c r="F88" t="s">
         <v>279</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8979,7 +8983,7 @@
       <c r="F89" t="s">
         <v>283</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -9003,7 +9007,7 @@
       <c r="F90" t="s">
         <v>141</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -9027,7 +9031,7 @@
       <c r="F91" t="s">
         <v>289</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -9051,7 +9055,7 @@
       <c r="F92" t="s">
         <v>291</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>292</v>
       </c>
     </row>
@@ -9075,7 +9079,7 @@
       <c r="F93" t="s">
         <v>291</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9099,7 +9103,7 @@
       <c r="F94" t="s">
         <v>291</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -9123,7 +9127,7 @@
       <c r="F95" t="s">
         <v>14</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9147,7 +9151,7 @@
       <c r="F96" t="s">
         <v>18</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9171,7 +9175,7 @@
       <c r="F97" t="s">
         <v>14</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9195,7 +9199,7 @@
       <c r="F98" t="s">
         <v>14</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -9219,7 +9223,7 @@
       <c r="F99" t="s">
         <v>14</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -9243,7 +9247,7 @@
       <c r="F100" t="s">
         <v>89</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9267,7 +9271,7 @@
       <c r="F101" t="s">
         <v>14</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -9291,7 +9295,7 @@
       <c r="F102" t="s">
         <v>14</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9315,7 +9319,7 @@
       <c r="F103" t="s">
         <v>320</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -9339,7 +9343,7 @@
       <c r="F104" t="s">
         <v>14</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="2" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9363,7 +9367,7 @@
       <c r="F105" t="s">
         <v>89</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -9387,7 +9391,7 @@
       <c r="F106" t="s">
         <v>102</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9411,7 +9415,7 @@
       <c r="F107" t="s">
         <v>332</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -9435,7 +9439,7 @@
       <c r="F108" t="s">
         <v>336</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="2" t="s">
         <v>337</v>
       </c>
     </row>
@@ -9459,7 +9463,7 @@
       <c r="F109" t="s">
         <v>124</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9483,7 +9487,7 @@
       <c r="F110" t="s">
         <v>283</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9507,7 +9511,7 @@
       <c r="F111" t="s">
         <v>14</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9531,7 +9535,7 @@
       <c r="F112" t="s">
         <v>14</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9555,7 +9559,7 @@
       <c r="F113" t="s">
         <v>14</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9579,7 +9583,7 @@
       <c r="F114" t="s">
         <v>14</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="2" t="s">
         <v>354</v>
       </c>
     </row>
@@ -9603,7 +9607,7 @@
       <c r="F115" t="s">
         <v>14</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>357</v>
       </c>
     </row>
@@ -9627,7 +9631,7 @@
       <c r="F116" t="s">
         <v>102</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>360</v>
       </c>
     </row>
@@ -9651,7 +9655,7 @@
       <c r="F117" t="s">
         <v>270</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9675,7 +9679,7 @@
       <c r="F118" t="s">
         <v>366</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -9699,7 +9703,7 @@
       <c r="F119" t="s">
         <v>25</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>371</v>
       </c>
     </row>
@@ -9723,7 +9727,7 @@
       <c r="F120" t="s">
         <v>25</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="2" t="s">
         <v>374</v>
       </c>
     </row>
@@ -9747,7 +9751,7 @@
       <c r="F121" t="s">
         <v>76</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="2" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9771,7 +9775,7 @@
       <c r="F122" t="s">
         <v>175</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="2" t="s">
         <v>380</v>
       </c>
     </row>
@@ -9795,7 +9799,7 @@
       <c r="F123" t="s">
         <v>383</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="2" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9819,7 +9823,7 @@
       <c r="F124" t="s">
         <v>89</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9843,7 +9847,7 @@
       <c r="F125" t="s">
         <v>18</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9867,7 +9871,7 @@
       <c r="F126" t="s">
         <v>14</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9891,7 +9895,7 @@
       <c r="F127" t="s">
         <v>14</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9915,7 +9919,7 @@
       <c r="F128" t="s">
         <v>89</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="2" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9939,7 +9943,7 @@
       <c r="F129" t="s">
         <v>14</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="2" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9963,7 +9967,7 @@
       <c r="F130" t="s">
         <v>14</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9987,7 +9991,7 @@
       <c r="F131" t="s">
         <v>14</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -10011,7 +10015,7 @@
       <c r="F132" t="s">
         <v>14</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -10035,7 +10039,7 @@
       <c r="F133" t="s">
         <v>14</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -10059,7 +10063,7 @@
       <c r="F134" t="s">
         <v>14</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -10083,7 +10087,7 @@
       <c r="F135" t="s">
         <v>18</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="2" t="s">
         <v>419</v>
       </c>
     </row>
@@ -10107,7 +10111,7 @@
       <c r="F136" t="s">
         <v>422</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10131,7 +10135,7 @@
       <c r="F137" t="s">
         <v>14</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -10155,7 +10159,7 @@
       <c r="F138" t="s">
         <v>259</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="2" t="s">
         <v>429</v>
       </c>
     </row>
@@ -10179,7 +10183,7 @@
       <c r="F139" t="s">
         <v>25</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>432</v>
       </c>
     </row>
@@ -10203,7 +10207,7 @@
       <c r="F140" t="s">
         <v>14</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -10227,7 +10231,7 @@
       <c r="F141" t="s">
         <v>89</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>438</v>
       </c>
     </row>
@@ -10251,7 +10255,7 @@
       <c r="F142" t="s">
         <v>25</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="2" t="s">
         <v>441</v>
       </c>
     </row>
@@ -10275,7 +10279,7 @@
       <c r="F143" t="s">
         <v>14</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="2" t="s">
         <v>444</v>
       </c>
     </row>
@@ -10299,7 +10303,7 @@
       <c r="F144" t="s">
         <v>14</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>447</v>
       </c>
     </row>
@@ -10323,7 +10327,7 @@
       <c r="F145" t="s">
         <v>14</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="2" t="s">
         <v>450</v>
       </c>
     </row>
@@ -10347,7 +10351,7 @@
       <c r="F146" t="s">
         <v>18</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="2" t="s">
         <v>453</v>
       </c>
     </row>
@@ -10371,7 +10375,7 @@
       <c r="F147" t="s">
         <v>175</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="2" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10395,7 +10399,7 @@
       <c r="F148" t="s">
         <v>175</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="2" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10419,7 +10423,7 @@
       <c r="F149" t="s">
         <v>89</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="2" t="s">
         <v>461</v>
       </c>
     </row>
@@ -10443,7 +10447,7 @@
       <c r="F150" t="s">
         <v>383</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="2" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10467,7 +10471,7 @@
       <c r="F151" t="s">
         <v>14</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -10491,7 +10495,7 @@
       <c r="F152" t="s">
         <v>14</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -10515,7 +10519,7 @@
       <c r="F153" t="s">
         <v>14</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10539,7 +10543,7 @@
       <c r="F154" t="s">
         <v>266</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="2" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10563,7 +10567,7 @@
       <c r="F155" t="s">
         <v>266</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="2" t="s">
         <v>479</v>
       </c>
     </row>
@@ -10587,7 +10591,7 @@
       <c r="F156" t="s">
         <v>266</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="2" t="s">
         <v>482</v>
       </c>
     </row>
@@ -10611,7 +10615,7 @@
       <c r="F157" t="s">
         <v>266</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="2" t="s">
         <v>485</v>
       </c>
     </row>
@@ -10635,7 +10639,7 @@
       <c r="F158" t="s">
         <v>266</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="2" t="s">
         <v>488</v>
       </c>
     </row>
@@ -10659,7 +10663,7 @@
       <c r="F159" t="s">
         <v>266</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10683,7 +10687,7 @@
       <c r="F160" t="s">
         <v>266</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -10707,7 +10711,7 @@
       <c r="F161" t="s">
         <v>266</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10731,7 +10735,7 @@
       <c r="F162" t="s">
         <v>266</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="2" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10755,7 +10759,7 @@
       <c r="F163" t="s">
         <v>503</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -10779,7 +10783,7 @@
       <c r="F164" t="s">
         <v>503</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="2" t="s">
         <v>507</v>
       </c>
     </row>
@@ -10803,7 +10807,7 @@
       <c r="F165" t="s">
         <v>510</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="2" t="s">
         <v>511</v>
       </c>
     </row>
@@ -10827,7 +10831,7 @@
       <c r="F166" t="s">
         <v>510</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -10851,7 +10855,7 @@
       <c r="F167" t="s">
         <v>510</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -10875,7 +10879,7 @@
       <c r="F168" t="s">
         <v>510</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="2" t="s">
         <v>519</v>
       </c>
     </row>
@@ -10899,7 +10903,7 @@
       <c r="F169" t="s">
         <v>510</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="2" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10923,7 +10927,7 @@
       <c r="F170" t="s">
         <v>510</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="2" t="s">
         <v>523</v>
       </c>
     </row>
@@ -10947,7 +10951,7 @@
       <c r="F171" t="s">
         <v>332</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -10971,7 +10975,7 @@
       <c r="F172" t="s">
         <v>528</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10995,7 +10999,7 @@
       <c r="F173" t="s">
         <v>279</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="2" t="s">
         <v>532</v>
       </c>
     </row>
@@ -11019,7 +11023,7 @@
       <c r="F174" t="s">
         <v>117</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="2" t="s">
         <v>535</v>
       </c>
     </row>
@@ -11043,7 +11047,7 @@
       <c r="F175" t="s">
         <v>128</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="2" t="s">
         <v>538</v>
       </c>
     </row>
@@ -11067,7 +11071,7 @@
       <c r="F176" t="s">
         <v>128</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="2" t="s">
         <v>541</v>
       </c>
     </row>
@@ -11091,7 +11095,7 @@
       <c r="F177" t="s">
         <v>283</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="2" t="s">
         <v>543</v>
       </c>
     </row>
@@ -11115,7 +11119,7 @@
       <c r="F178" t="s">
         <v>141</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="2" t="s">
         <v>546</v>
       </c>
     </row>
@@ -11139,7 +11143,7 @@
       <c r="F179" t="s">
         <v>141</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="2" t="s">
         <v>548</v>
       </c>
     </row>
@@ -11163,7 +11167,7 @@
       <c r="F180" t="s">
         <v>146</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="2" t="s">
         <v>551</v>
       </c>
     </row>
@@ -11187,7 +11191,7 @@
       <c r="F181" t="s">
         <v>146</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="2" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11211,7 +11215,7 @@
       <c r="F182" t="s">
         <v>146</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -11235,7 +11239,7 @@
       <c r="F183" t="s">
         <v>14</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="2" t="s">
         <v>561</v>
       </c>
     </row>
@@ -11259,7 +11263,7 @@
       <c r="F184" t="s">
         <v>14</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="2" t="s">
         <v>564</v>
       </c>
     </row>
@@ -11283,7 +11287,7 @@
       <c r="F185" t="s">
         <v>14</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="2" t="s">
         <v>567</v>
       </c>
     </row>
@@ -11307,7 +11311,7 @@
       <c r="F186" t="s">
         <v>89</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="2" t="s">
         <v>570</v>
       </c>
     </row>
@@ -11331,7 +11335,7 @@
       <c r="F187" t="s">
         <v>89</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -11355,7 +11359,7 @@
       <c r="F188" t="s">
         <v>18</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="2" t="s">
         <v>576</v>
       </c>
     </row>
@@ -11379,7 +11383,7 @@
       <c r="F189" t="s">
         <v>14</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="2" t="s">
         <v>579</v>
       </c>
     </row>
@@ -11403,7 +11407,7 @@
       <c r="F190" t="s">
         <v>14</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="2" t="s">
         <v>582</v>
       </c>
     </row>
@@ -11427,7 +11431,7 @@
       <c r="F191" t="s">
         <v>14</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="2" t="s">
         <v>585</v>
       </c>
     </row>
@@ -11451,7 +11455,7 @@
       <c r="F192" t="s">
         <v>89</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="2" t="s">
         <v>588</v>
       </c>
     </row>
@@ -11475,7 +11479,7 @@
       <c r="F193" t="s">
         <v>14</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="2" t="s">
         <v>589</v>
       </c>
     </row>
@@ -11499,7 +11503,7 @@
       <c r="F194" t="s">
         <v>14</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="2" t="s">
         <v>593</v>
       </c>
     </row>
@@ -11523,7 +11527,7 @@
       <c r="F195" t="s">
         <v>89</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="2" t="s">
         <v>596</v>
       </c>
     </row>
@@ -11547,7 +11551,7 @@
       <c r="F196" t="s">
         <v>14</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="2" t="s">
         <v>599</v>
       </c>
     </row>
@@ -11571,7 +11575,7 @@
       <c r="F197" t="s">
         <v>14</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="2" t="s">
         <v>602</v>
       </c>
     </row>
@@ -11595,7 +11599,7 @@
       <c r="F198" t="s">
         <v>14</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="2" t="s">
         <v>604</v>
       </c>
     </row>
@@ -11619,7 +11623,7 @@
       <c r="F199" t="s">
         <v>259</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="2" t="s">
         <v>607</v>
       </c>
     </row>
@@ -11643,7 +11647,7 @@
       <c r="F200" t="s">
         <v>14</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="2" t="s">
         <v>608</v>
       </c>
     </row>
@@ -11667,7 +11671,7 @@
       <c r="F201" t="s">
         <v>14</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="2" t="s">
         <v>612</v>
       </c>
     </row>
@@ -11691,7 +11695,7 @@
       <c r="F202" t="s">
         <v>18</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="2" t="s">
         <v>615</v>
       </c>
     </row>
@@ -11715,7 +11719,7 @@
       <c r="F203" t="s">
         <v>14</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="2" t="s">
         <v>618</v>
       </c>
     </row>
@@ -11739,7 +11743,7 @@
       <c r="F204" t="s">
         <v>14</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="2" t="s">
         <v>621</v>
       </c>
     </row>
@@ -11763,7 +11767,7 @@
       <c r="F205" t="s">
         <v>14</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="2" t="s">
         <v>624</v>
       </c>
     </row>
@@ -11787,7 +11791,7 @@
       <c r="F206" t="s">
         <v>14</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="2" t="s">
         <v>625</v>
       </c>
     </row>
@@ -11811,7 +11815,7 @@
       <c r="F207" t="s">
         <v>14</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="2" t="s">
         <v>628</v>
       </c>
     </row>
@@ -11835,7 +11839,7 @@
       <c r="F208" t="s">
         <v>14</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="2" t="s">
         <v>630</v>
       </c>
     </row>
@@ -11859,7 +11863,7 @@
       <c r="F209" t="s">
         <v>14</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="2" t="s">
         <v>631</v>
       </c>
     </row>
@@ -11883,7 +11887,7 @@
       <c r="F210" t="s">
         <v>18</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="2" t="s">
         <v>635</v>
       </c>
     </row>
@@ -11907,7 +11911,7 @@
       <c r="F211" t="s">
         <v>14</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="2" t="s">
         <v>638</v>
       </c>
     </row>
@@ -11931,7 +11935,7 @@
       <c r="F212" t="s">
         <v>641</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="2" t="s">
         <v>642</v>
       </c>
     </row>
@@ -11955,7 +11959,7 @@
       <c r="F213" t="s">
         <v>645</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="2" t="s">
         <v>646</v>
       </c>
     </row>
@@ -11979,7 +11983,7 @@
       <c r="F214" t="s">
         <v>14</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="2" t="s">
         <v>649</v>
       </c>
     </row>
@@ -12003,7 +12007,7 @@
       <c r="F215" t="s">
         <v>14</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="2" t="s">
         <v>651</v>
       </c>
     </row>
@@ -12027,7 +12031,7 @@
       <c r="F216" t="s">
         <v>14</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="2" t="s">
         <v>654</v>
       </c>
     </row>
@@ -12051,7 +12055,7 @@
       <c r="F217" t="s">
         <v>259</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="2" t="s">
         <v>657</v>
       </c>
     </row>
@@ -12075,7 +12079,7 @@
       <c r="F218" t="s">
         <v>14</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -12099,7 +12103,7 @@
       <c r="F219" t="s">
         <v>102</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="2" t="s">
         <v>662</v>
       </c>
     </row>
@@ -12123,7 +12127,7 @@
       <c r="F220" t="s">
         <v>102</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="2" t="s">
         <v>665</v>
       </c>
     </row>
@@ -12147,7 +12151,7 @@
       <c r="F221" t="s">
         <v>106</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="2" t="s">
         <v>668</v>
       </c>
     </row>
@@ -12171,7 +12175,7 @@
       <c r="F222" t="s">
         <v>671</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="2" t="s">
         <v>672</v>
       </c>
     </row>
@@ -12195,7 +12199,7 @@
       <c r="F223" t="s">
         <v>671</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="2" t="s">
         <v>674</v>
       </c>
     </row>
@@ -12219,7 +12223,7 @@
       <c r="F224" t="s">
         <v>110</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="2" t="s">
         <v>676</v>
       </c>
     </row>
@@ -12243,7 +12247,7 @@
       <c r="F225" t="s">
         <v>270</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="2" t="s">
         <v>679</v>
       </c>
     </row>
@@ -12267,7 +12271,7 @@
       <c r="F226" t="s">
         <v>270</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="2" t="s">
         <v>682</v>
       </c>
     </row>
@@ -12291,7 +12295,7 @@
       <c r="F227" t="s">
         <v>684</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="2" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12315,7 +12319,7 @@
       <c r="F228" t="s">
         <v>688</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="2" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12339,7 +12343,7 @@
       <c r="F229" t="s">
         <v>688</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="2" t="s">
         <v>691</v>
       </c>
     </row>
@@ -12363,7 +12367,7 @@
       <c r="F230" t="s">
         <v>694</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="2" t="s">
         <v>695</v>
       </c>
     </row>
@@ -12387,7 +12391,7 @@
       <c r="F231" t="s">
         <v>336</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="2" t="s">
         <v>698</v>
       </c>
     </row>
@@ -12411,7 +12415,7 @@
       <c r="F232" t="s">
         <v>124</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="2" t="s">
         <v>701</v>
       </c>
     </row>
@@ -12435,7 +12439,7 @@
       <c r="F233" t="s">
         <v>128</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="2" t="s">
         <v>604</v>
       </c>
     </row>
@@ -12459,7 +12463,7 @@
       <c r="F234" t="s">
         <v>134</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="2" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12483,7 +12487,7 @@
       <c r="F235" t="s">
         <v>141</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="2" t="s">
         <v>709</v>
       </c>
     </row>
@@ -12507,7 +12511,7 @@
       <c r="F236" t="s">
         <v>711</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="2" t="s">
         <v>712</v>
       </c>
     </row>
@@ -12531,7 +12535,7 @@
       <c r="F237" t="s">
         <v>146</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="2" t="s">
         <v>715</v>
       </c>
     </row>
@@ -12555,7 +12559,7 @@
       <c r="F238" t="s">
         <v>717</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="2" t="s">
         <v>718</v>
       </c>
     </row>
@@ -12579,7 +12583,7 @@
       <c r="F239" t="s">
         <v>719</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="2" t="s">
         <v>720</v>
       </c>
     </row>
@@ -12603,7 +12607,7 @@
       <c r="F240" t="s">
         <v>14</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="2" t="s">
         <v>724</v>
       </c>
     </row>
@@ -12627,7 +12631,7 @@
       <c r="F241" t="s">
         <v>14</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="2" t="s">
         <v>727</v>
       </c>
     </row>
@@ -12651,7 +12655,7 @@
       <c r="F242" t="s">
         <v>14</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="2" t="s">
         <v>730</v>
       </c>
     </row>
@@ -12675,7 +12679,7 @@
       <c r="F243" t="s">
         <v>266</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="2" t="s">
         <v>733</v>
       </c>
     </row>
@@ -12699,7 +12703,7 @@
       <c r="F244" t="s">
         <v>734</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="2" t="s">
         <v>735</v>
       </c>
     </row>
@@ -12723,7 +12727,7 @@
       <c r="F245" t="s">
         <v>14</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="2" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12747,7 +12751,7 @@
       <c r="F246" t="s">
         <v>14</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="2" t="s">
         <v>740</v>
       </c>
     </row>
@@ -12771,7 +12775,7 @@
       <c r="F247" t="s">
         <v>14</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="2" t="s">
         <v>743</v>
       </c>
     </row>
@@ -12795,7 +12799,7 @@
       <c r="F248" t="s">
         <v>89</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="2" t="s">
         <v>746</v>
       </c>
     </row>
@@ -12819,7 +12823,7 @@
       <c r="F249" t="s">
         <v>14</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="2" t="s">
         <v>749</v>
       </c>
     </row>
@@ -12843,7 +12847,7 @@
       <c r="F250" t="s">
         <v>14</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="2" t="s">
         <v>750</v>
       </c>
     </row>
@@ -12867,7 +12871,7 @@
       <c r="F251" t="s">
         <v>14</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="2" t="s">
         <v>754</v>
       </c>
     </row>
@@ -12891,7 +12895,7 @@
       <c r="F252" t="s">
         <v>14</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="2" t="s">
         <v>757</v>
       </c>
     </row>
@@ -12915,7 +12919,7 @@
       <c r="F253" t="s">
         <v>14</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="2" t="s">
         <v>760</v>
       </c>
     </row>
@@ -12939,7 +12943,7 @@
       <c r="F254" t="s">
         <v>14</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="2" t="s">
         <v>763</v>
       </c>
     </row>
@@ -12963,7 +12967,7 @@
       <c r="F255" t="s">
         <v>14</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="2" t="s">
         <v>766</v>
       </c>
     </row>
@@ -12987,7 +12991,7 @@
       <c r="F256" t="s">
         <v>769</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="2" t="s">
         <v>770</v>
       </c>
     </row>
@@ -13011,7 +13015,7 @@
       <c r="F257" t="s">
         <v>89</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="2" t="s">
         <v>773</v>
       </c>
     </row>
@@ -13035,7 +13039,7 @@
       <c r="F258" t="s">
         <v>641</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="2" t="s">
         <v>775</v>
       </c>
     </row>
@@ -13059,7 +13063,7 @@
       <c r="F259" t="s">
         <v>102</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="2" t="s">
         <v>778</v>
       </c>
     </row>
@@ -13083,7 +13087,7 @@
       <c r="F260" t="s">
         <v>781</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G260" s="2" t="s">
         <v>782</v>
       </c>
     </row>
@@ -13107,7 +13111,7 @@
       <c r="F261" t="s">
         <v>332</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="2" t="s">
         <v>785</v>
       </c>
     </row>
@@ -13131,7 +13135,7 @@
       <c r="F262" t="s">
         <v>366</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="2" t="s">
         <v>788</v>
       </c>
     </row>
@@ -13155,7 +13159,7 @@
       <c r="F263" t="s">
         <v>791</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="2" t="s">
         <v>792</v>
       </c>
     </row>
@@ -13179,7 +13183,7 @@
       <c r="F264" t="s">
         <v>276</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="2" t="s">
         <v>793</v>
       </c>
     </row>
@@ -13203,7 +13207,7 @@
       <c r="F265" t="s">
         <v>694</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -13227,7 +13231,7 @@
       <c r="F266" t="s">
         <v>117</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="2" t="s">
         <v>799</v>
       </c>
     </row>
@@ -13251,7 +13255,7 @@
       <c r="F267" t="s">
         <v>336</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="2" t="s">
         <v>802</v>
       </c>
     </row>
@@ -13275,7 +13279,7 @@
       <c r="F268" t="s">
         <v>128</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="2" t="s">
         <v>805</v>
       </c>
     </row>
@@ -13299,7 +13303,7 @@
       <c r="F269" t="s">
         <v>283</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="2" t="s">
         <v>807</v>
       </c>
     </row>
@@ -13323,7 +13327,7 @@
       <c r="F270" t="s">
         <v>141</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="2" t="s">
         <v>810</v>
       </c>
     </row>
@@ -13347,7 +13351,7 @@
       <c r="F271" t="s">
         <v>146</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="2" t="s">
         <v>813</v>
       </c>
     </row>
@@ -13371,7 +13375,7 @@
       <c r="F272" t="s">
         <v>146</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="2" t="s">
         <v>816</v>
       </c>
     </row>
@@ -13395,7 +13399,7 @@
       <c r="F273" t="s">
         <v>102</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="2" t="s">
         <v>819</v>
       </c>
     </row>
@@ -13419,7 +13423,7 @@
       <c r="F274" t="s">
         <v>366</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="2" t="s">
         <v>820</v>
       </c>
     </row>
@@ -13443,7 +13447,7 @@
       <c r="F275" t="s">
         <v>89</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="2" t="s">
         <v>825</v>
       </c>
     </row>
@@ -13467,7 +13471,7 @@
       <c r="F276" t="s">
         <v>828</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="2" t="s">
         <v>829</v>
       </c>
     </row>
@@ -13491,7 +13495,7 @@
       <c r="F277" t="s">
         <v>14</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="2" t="s">
         <v>832</v>
       </c>
     </row>
@@ -13515,7 +13519,7 @@
       <c r="F278" t="s">
         <v>835</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="2" t="s">
         <v>836</v>
       </c>
     </row>
@@ -13539,7 +13543,7 @@
       <c r="F279" t="s">
         <v>14</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="2" t="s">
         <v>839</v>
       </c>
     </row>
@@ -13563,7 +13567,7 @@
       <c r="F280" t="s">
         <v>14</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="2" t="s">
         <v>842</v>
       </c>
     </row>
@@ -13587,7 +13591,7 @@
       <c r="F281" t="s">
         <v>14</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="2" t="s">
         <v>845</v>
       </c>
     </row>
@@ -13611,7 +13615,7 @@
       <c r="F282" t="s">
         <v>14</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="2" t="s">
         <v>848</v>
       </c>
     </row>
@@ -13635,7 +13639,7 @@
       <c r="F283" t="s">
         <v>14</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="2" t="s">
         <v>851</v>
       </c>
     </row>
@@ -13659,7 +13663,7 @@
       <c r="F284" t="s">
         <v>14</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="2" t="s">
         <v>854</v>
       </c>
     </row>
@@ -13683,7 +13687,7 @@
       <c r="F285" t="s">
         <v>25</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G285" s="2" t="s">
         <v>857</v>
       </c>
     </row>
@@ -13707,7 +13711,7 @@
       <c r="F286" t="s">
         <v>860</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G286" s="2" t="s">
         <v>861</v>
       </c>
     </row>
@@ -13731,7 +13735,7 @@
       <c r="F287" t="s">
         <v>14</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="2" t="s">
         <v>864</v>
       </c>
     </row>
@@ -13755,7 +13759,7 @@
       <c r="F288" t="s">
         <v>14</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288" s="2" t="s">
         <v>867</v>
       </c>
     </row>
@@ -13779,7 +13783,7 @@
       <c r="F289" t="s">
         <v>25</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="2" t="s">
         <v>870</v>
       </c>
     </row>
@@ -13803,7 +13807,7 @@
       <c r="F290" t="s">
         <v>332</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="2" t="s">
         <v>871</v>
       </c>
     </row>
@@ -13827,7 +13831,7 @@
       <c r="F291" t="s">
         <v>110</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G291" s="2" t="s">
         <v>873</v>
       </c>
     </row>
@@ -13851,7 +13855,7 @@
       <c r="F292" t="s">
         <v>270</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G292" s="2" t="s">
         <v>876</v>
       </c>
     </row>
@@ -13875,7 +13879,7 @@
       <c r="F293" t="s">
         <v>879</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G293" s="2" t="s">
         <v>880</v>
       </c>
     </row>
@@ -13899,7 +13903,7 @@
       <c r="F294" t="s">
         <v>89</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G294" s="2" t="s">
         <v>884</v>
       </c>
     </row>
@@ -13923,7 +13927,7 @@
       <c r="F295" t="s">
         <v>102</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G295" s="2" t="s">
         <v>887</v>
       </c>
     </row>
@@ -13947,7 +13951,7 @@
       <c r="F296" t="s">
         <v>102</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G296" s="2" t="s">
         <v>890</v>
       </c>
     </row>
@@ -13971,7 +13975,7 @@
       <c r="F297" t="s">
         <v>366</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G297" s="2" t="s">
         <v>893</v>
       </c>
     </row>
@@ -13995,7 +13999,7 @@
       <c r="F298" t="s">
         <v>895</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G298" s="2" t="s">
         <v>896</v>
       </c>
     </row>
@@ -14019,7 +14023,7 @@
       <c r="F299" t="s">
         <v>899</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="2" t="s">
         <v>900</v>
       </c>
     </row>
@@ -14043,7 +14047,7 @@
       <c r="F300" t="s">
         <v>528</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G300" s="2" t="s">
         <v>903</v>
       </c>
     </row>
@@ -14067,7 +14071,7 @@
       <c r="F301" t="s">
         <v>694</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="2" t="s">
         <v>906</v>
       </c>
     </row>
@@ -14091,7 +14095,7 @@
       <c r="F302" t="s">
         <v>528</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="2" t="s">
         <v>908</v>
       </c>
     </row>
@@ -14115,7 +14119,7 @@
       <c r="F303" t="s">
         <v>14</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="2" t="s">
         <v>910</v>
       </c>
     </row>
@@ -14139,7 +14143,7 @@
       <c r="F304" t="s">
         <v>14</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G304" s="2" t="s">
         <v>914</v>
       </c>
     </row>
@@ -14163,7 +14167,7 @@
       <c r="F305" t="s">
         <v>67</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G305" s="2" t="s">
         <v>917</v>
       </c>
     </row>
@@ -14187,7 +14191,7 @@
       <c r="F306" t="s">
         <v>14</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="2" t="s">
         <v>920</v>
       </c>
     </row>
@@ -14211,7 +14215,7 @@
       <c r="F307" t="s">
         <v>259</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="2" t="s">
         <v>923</v>
       </c>
     </row>
@@ -14235,7 +14239,7 @@
       <c r="F308" t="s">
         <v>14</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="2" t="s">
         <v>926</v>
       </c>
     </row>
@@ -14259,7 +14263,7 @@
       <c r="F309" t="s">
         <v>14</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G309" s="2" t="s">
         <v>927</v>
       </c>
     </row>
@@ -14283,7 +14287,7 @@
       <c r="F310" t="s">
         <v>14</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="2" t="s">
         <v>931</v>
       </c>
     </row>
@@ -14307,7 +14311,7 @@
       <c r="F311" t="s">
         <v>76</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="2" t="s">
         <v>933</v>
       </c>
     </row>
@@ -14331,7 +14335,7 @@
       <c r="F312" t="s">
         <v>936</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="2" t="s">
         <v>937</v>
       </c>
     </row>
@@ -14355,7 +14359,7 @@
       <c r="F313" t="s">
         <v>25</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="2" t="s">
         <v>940</v>
       </c>
     </row>
@@ -14379,7 +14383,7 @@
       <c r="F314" t="s">
         <v>14</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G314" s="2" t="s">
         <v>943</v>
       </c>
     </row>
@@ -14403,7 +14407,7 @@
       <c r="F315" t="s">
         <v>102</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="2" t="s">
         <v>944</v>
       </c>
     </row>
@@ -14427,7 +14431,7 @@
       <c r="F316" t="s">
         <v>102</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="2" t="s">
         <v>948</v>
       </c>
     </row>
@@ -14451,7 +14455,7 @@
       <c r="F317" t="s">
         <v>366</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="2" t="s">
         <v>951</v>
       </c>
     </row>
@@ -14475,7 +14479,7 @@
       <c r="F318" t="s">
         <v>879</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G318" s="2" t="s">
         <v>954</v>
       </c>
     </row>
@@ -14499,7 +14503,7 @@
       <c r="F319" t="s">
         <v>528</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="2" t="s">
         <v>957</v>
       </c>
     </row>
@@ -14523,7 +14527,7 @@
       <c r="F320" t="s">
         <v>959</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="2" t="s">
         <v>960</v>
       </c>
     </row>
@@ -14547,7 +14551,7 @@
       <c r="F321" t="s">
         <v>151</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="2" t="s">
         <v>962</v>
       </c>
     </row>
@@ -14571,7 +14575,7 @@
       <c r="F322" t="s">
         <v>151</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="2" t="s">
         <v>965</v>
       </c>
     </row>
@@ -14595,7 +14599,7 @@
       <c r="F323" t="s">
         <v>151</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="2" t="s">
         <v>968</v>
       </c>
     </row>
@@ -14619,7 +14623,7 @@
       <c r="F324" t="s">
         <v>14</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="2" t="s">
         <v>972</v>
       </c>
     </row>
@@ -14643,7 +14647,7 @@
       <c r="F325" t="s">
         <v>14</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G325" s="2" t="s">
         <v>975</v>
       </c>
     </row>
@@ -14667,7 +14671,7 @@
       <c r="F326" t="s">
         <v>510</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="2" t="s">
         <v>978</v>
       </c>
     </row>
@@ -14691,7 +14695,7 @@
       <c r="F327" t="s">
         <v>276</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G327" s="2" t="s">
         <v>979</v>
       </c>
     </row>
@@ -14715,7 +14719,7 @@
       <c r="F328" t="s">
         <v>982</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G328" s="2" t="s">
         <v>983</v>
       </c>
     </row>
@@ -14739,7 +14743,7 @@
       <c r="F329" t="s">
         <v>89</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G329" s="2" t="s">
         <v>987</v>
       </c>
     </row>
@@ -14763,7 +14767,7 @@
       <c r="F330" t="s">
         <v>14</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G330" s="2" t="s">
         <v>988</v>
       </c>
     </row>
@@ -14787,7 +14791,7 @@
       <c r="F331" t="s">
         <v>14</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G331" s="2" t="s">
         <v>992</v>
       </c>
     </row>
@@ -14811,7 +14815,7 @@
       <c r="F332" t="s">
         <v>14</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G332" s="2" t="s">
         <v>993</v>
       </c>
     </row>
@@ -14835,7 +14839,7 @@
       <c r="F333" t="s">
         <v>14</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G333" s="2" t="s">
         <v>997</v>
       </c>
     </row>
@@ -14859,7 +14863,7 @@
       <c r="F334" t="s">
         <v>25</v>
       </c>
-      <c r="G334" t="s">
+      <c r="G334" s="2" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -14883,7 +14887,7 @@
       <c r="F335" t="s">
         <v>92</v>
       </c>
-      <c r="G335" t="s">
+      <c r="G335" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -14907,7 +14911,7 @@
       <c r="F336" t="s">
         <v>1005</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G336" s="2" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -14931,7 +14935,7 @@
       <c r="F337" t="s">
         <v>1008</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G337" s="2" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -14955,7 +14959,7 @@
       <c r="F338" t="s">
         <v>102</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G338" s="2" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -14979,7 +14983,7 @@
       <c r="F339" t="s">
         <v>270</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G339" s="2" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -15003,7 +15007,7 @@
       <c r="F340" t="s">
         <v>276</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G340" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -15027,7 +15031,7 @@
       <c r="F341" t="s">
         <v>688</v>
       </c>
-      <c r="G341" t="s">
+      <c r="G341" s="2" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -15051,7 +15055,7 @@
       <c r="F342" t="s">
         <v>688</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G342" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -15075,7 +15079,7 @@
       <c r="F343" t="s">
         <v>124</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G343" s="2" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -15099,7 +15103,7 @@
       <c r="F344" t="s">
         <v>959</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G344" s="2" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -15123,7 +15127,7 @@
       <c r="F345" t="s">
         <v>959</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G345" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -15147,7 +15151,7 @@
       <c r="F346" t="s">
         <v>1031</v>
       </c>
-      <c r="G346" t="s">
+      <c r="G346" s="2" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -15171,7 +15175,7 @@
       <c r="F347" t="s">
         <v>1034</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G347" s="2" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -15195,7 +15199,7 @@
       <c r="F348" t="s">
         <v>336</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G348" s="2" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -15219,7 +15223,7 @@
       <c r="F349" t="s">
         <v>14</v>
       </c>
-      <c r="G349" t="s">
+      <c r="G349" s="2" t="s">
         <v>1042</v>
       </c>
     </row>
@@ -15243,7 +15247,7 @@
       <c r="F350" t="s">
         <v>14</v>
       </c>
-      <c r="G350" t="s">
+      <c r="G350" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -15267,7 +15271,7 @@
       <c r="F351" t="s">
         <v>89</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G351" s="2" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -15291,7 +15295,7 @@
       <c r="F352" t="s">
         <v>14</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G352" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -15315,7 +15319,7 @@
       <c r="F353" t="s">
         <v>25</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -15339,7 +15343,7 @@
       <c r="F354" t="s">
         <v>102</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G354" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -15363,7 +15367,7 @@
       <c r="F355" t="s">
         <v>102</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G355" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -15387,7 +15391,7 @@
       <c r="F356" t="s">
         <v>102</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G356" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -15411,7 +15415,7 @@
       <c r="F357" t="s">
         <v>781</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G357" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -15435,7 +15439,7 @@
       <c r="F358" t="s">
         <v>781</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G358" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -15459,7 +15463,7 @@
       <c r="F359" t="s">
         <v>332</v>
       </c>
-      <c r="G359" t="s">
+      <c r="G359" s="2" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -15483,7 +15487,7 @@
       <c r="F360" t="s">
         <v>528</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G360" s="2" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -15507,7 +15511,7 @@
       <c r="F361" t="s">
         <v>366</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G361" s="2" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -15531,7 +15535,7 @@
       <c r="F362" t="s">
         <v>366</v>
       </c>
-      <c r="G362" t="s">
+      <c r="G362" s="2" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -15555,7 +15559,7 @@
       <c r="F363" t="s">
         <v>684</v>
       </c>
-      <c r="G363" t="s">
+      <c r="G363" s="2" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -15579,7 +15583,7 @@
       <c r="F364" t="s">
         <v>528</v>
       </c>
-      <c r="G364" t="s">
+      <c r="G364" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -15603,7 +15607,7 @@
       <c r="F365" t="s">
         <v>276</v>
       </c>
-      <c r="G365" t="s">
+      <c r="G365" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -15627,7 +15631,7 @@
       <c r="F366" t="s">
         <v>276</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G366" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -15651,7 +15655,7 @@
       <c r="F367" t="s">
         <v>114</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G367" s="2" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -15675,7 +15679,7 @@
       <c r="F368" t="s">
         <v>117</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G368" s="2" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -15699,7 +15703,7 @@
       <c r="F369" t="s">
         <v>117</v>
       </c>
-      <c r="G369" t="s">
+      <c r="G369" s="2" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -15723,7 +15727,7 @@
       <c r="F370" t="s">
         <v>117</v>
       </c>
-      <c r="G370" t="s">
+      <c r="G370" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -15747,7 +15751,7 @@
       <c r="F371" t="s">
         <v>1103</v>
       </c>
-      <c r="G371" t="s">
+      <c r="G371" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -15771,7 +15775,7 @@
       <c r="F372" t="s">
         <v>336</v>
       </c>
-      <c r="G372" t="s">
+      <c r="G372" s="2" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -15795,7 +15799,7 @@
       <c r="F373" t="s">
         <v>336</v>
       </c>
-      <c r="G373" t="s">
+      <c r="G373" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -15819,7 +15823,7 @@
       <c r="F374" t="s">
         <v>124</v>
       </c>
-      <c r="G374" t="s">
+      <c r="G374" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -15843,7 +15847,7 @@
       <c r="F375" t="s">
         <v>134</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G375" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -15867,7 +15871,7 @@
       <c r="F376" t="s">
         <v>141</v>
       </c>
-      <c r="G376" t="s">
+      <c r="G376" s="2" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -15891,7 +15895,7 @@
       <c r="F377" t="s">
         <v>289</v>
       </c>
-      <c r="G377" t="s">
+      <c r="G377" s="2" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -15915,7 +15919,7 @@
       <c r="F378" t="s">
         <v>289</v>
       </c>
-      <c r="G378" t="s">
+      <c r="G378" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -15939,7 +15943,7 @@
       <c r="F379" t="s">
         <v>895</v>
       </c>
-      <c r="G379" t="s">
+      <c r="G379" s="2" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -15963,7 +15967,7 @@
       <c r="F380" t="s">
         <v>1128</v>
       </c>
-      <c r="G380" t="s">
+      <c r="G380" s="2" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -15987,7 +15991,7 @@
       <c r="F381" t="s">
         <v>14</v>
       </c>
-      <c r="G381" t="s">
+      <c r="G381" s="2" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -16011,7 +16015,7 @@
       <c r="F382" t="s">
         <v>366</v>
       </c>
-      <c r="G382" t="s">
+      <c r="G382" s="2" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -16035,7 +16039,7 @@
       <c r="F383" t="s">
         <v>276</v>
       </c>
-      <c r="G383" t="s">
+      <c r="G383" s="2" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -16059,7 +16063,7 @@
       <c r="F384" t="s">
         <v>688</v>
       </c>
-      <c r="G384" t="s">
+      <c r="G384" s="2" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -16083,7 +16087,7 @@
       <c r="F385" t="s">
         <v>336</v>
       </c>
-      <c r="G385" t="s">
+      <c r="G385" s="2" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -16107,7 +16111,7 @@
       <c r="F386" t="s">
         <v>289</v>
       </c>
-      <c r="G386" t="s">
+      <c r="G386" s="2" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -16131,7 +16135,7 @@
       <c r="F387" t="s">
         <v>289</v>
       </c>
-      <c r="G387" t="s">
+      <c r="G387" s="2" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -16155,7 +16159,7 @@
       <c r="F388" t="s">
         <v>246</v>
       </c>
-      <c r="G388" t="s">
+      <c r="G388" s="2" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -16179,7 +16183,7 @@
       <c r="F389" t="s">
         <v>219</v>
       </c>
-      <c r="G389" t="s">
+      <c r="G389" s="2" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -16203,7 +16207,7 @@
       <c r="F390" t="s">
         <v>219</v>
       </c>
-      <c r="G390" t="s">
+      <c r="G390" s="2" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -16227,7 +16231,7 @@
       <c r="F391" t="s">
         <v>18</v>
       </c>
-      <c r="G391" t="s">
+      <c r="G391" s="2" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -16251,7 +16255,7 @@
       <c r="F392" t="s">
         <v>1163</v>
       </c>
-      <c r="G392" t="s">
+      <c r="G392" s="2" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -16275,7 +16279,7 @@
       <c r="F393" t="s">
         <v>18</v>
       </c>
-      <c r="G393" t="s">
+      <c r="G393" s="2" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -16299,7 +16303,7 @@
       <c r="F394" t="s">
         <v>791</v>
       </c>
-      <c r="G394" t="s">
+      <c r="G394" s="2" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -16323,7 +16327,7 @@
       <c r="F395" t="s">
         <v>694</v>
       </c>
-      <c r="G395" t="s">
+      <c r="G395" s="2" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -16347,7 +16351,7 @@
       <c r="F396" t="s">
         <v>117</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G396" s="2" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -16371,7 +16375,7 @@
       <c r="F397" t="s">
         <v>141</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G397" s="2" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -16395,7 +16399,7 @@
       <c r="F398" t="s">
         <v>711</v>
       </c>
-      <c r="G398" t="s">
+      <c r="G398" s="2" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16419,7 +16423,7 @@
       <c r="F399" t="s">
         <v>959</v>
       </c>
-      <c r="G399" t="s">
+      <c r="G399" s="2" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -16443,7 +16447,7 @@
       <c r="F400" t="s">
         <v>959</v>
       </c>
-      <c r="G400" t="s">
+      <c r="G400" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -16467,7 +16471,7 @@
       <c r="F401" t="s">
         <v>1185</v>
       </c>
-      <c r="G401" t="s">
+      <c r="G401" s="2" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -16491,7 +16495,7 @@
       <c r="F402" t="s">
         <v>14</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G402" s="2" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -16515,7 +16519,7 @@
       <c r="F403" t="s">
         <v>276</v>
       </c>
-      <c r="G403" t="s">
+      <c r="G403" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -16539,7 +16543,7 @@
       <c r="F404" t="s">
         <v>279</v>
       </c>
-      <c r="G404" t="s">
+      <c r="G404" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -16563,7 +16567,7 @@
       <c r="F405" t="s">
         <v>1103</v>
       </c>
-      <c r="G405" t="s">
+      <c r="G405" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -16587,7 +16591,7 @@
       <c r="F406" t="s">
         <v>283</v>
       </c>
-      <c r="G406" t="s">
+      <c r="G406" s="2" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -16611,7 +16615,7 @@
       <c r="F407" t="s">
         <v>144</v>
       </c>
-      <c r="G407" t="s">
+      <c r="G407" s="2" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -16635,7 +16639,7 @@
       <c r="F408" t="s">
         <v>711</v>
       </c>
-      <c r="G408" t="s">
+      <c r="G408" s="2" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -16659,7 +16663,7 @@
       <c r="F409" t="s">
         <v>67</v>
       </c>
-      <c r="G409" t="s">
+      <c r="G409" s="2" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -16683,7 +16687,7 @@
       <c r="F410" t="s">
         <v>1213</v>
       </c>
-      <c r="G410" t="s">
+      <c r="G410" s="2" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -16707,7 +16711,7 @@
       <c r="F411" t="s">
         <v>14</v>
       </c>
-      <c r="G411" t="s">
+      <c r="G411" s="2" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -16731,7 +16735,7 @@
       <c r="F412" t="s">
         <v>76</v>
       </c>
-      <c r="G412" t="s">
+      <c r="G412" s="2" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -16755,7 +16759,7 @@
       <c r="F413" t="s">
         <v>14</v>
       </c>
-      <c r="G413" t="s">
+      <c r="G413" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16779,7 +16783,7 @@
       <c r="F414" t="s">
         <v>67</v>
       </c>
-      <c r="G414" t="s">
+      <c r="G414" s="2" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -16803,7 +16807,7 @@
       <c r="F415" t="s">
         <v>781</v>
       </c>
-      <c r="G415" t="s">
+      <c r="G415" s="2" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -16827,7 +16831,7 @@
       <c r="F416" t="s">
         <v>503</v>
       </c>
-      <c r="G416" t="s">
+      <c r="G416" s="2" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -16851,7 +16855,7 @@
       <c r="F417" t="s">
         <v>503</v>
       </c>
-      <c r="G417" t="s">
+      <c r="G417" s="2" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -16875,7 +16879,7 @@
       <c r="F418" t="s">
         <v>1236</v>
       </c>
-      <c r="G418" t="s">
+      <c r="G418" s="2" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -16899,7 +16903,7 @@
       <c r="F419" t="s">
         <v>336</v>
       </c>
-      <c r="G419" t="s">
+      <c r="G419" s="2" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -16923,7 +16927,7 @@
       <c r="F420" t="s">
         <v>959</v>
       </c>
-      <c r="G420" t="s">
+      <c r="G420" s="2" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -16947,7 +16951,7 @@
       <c r="F421" t="s">
         <v>1031</v>
       </c>
-      <c r="G421" t="s">
+      <c r="G421" s="2" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -16971,7 +16975,7 @@
       <c r="F422" t="s">
         <v>151</v>
       </c>
-      <c r="G422" t="s">
+      <c r="G422" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -16995,7 +16999,7 @@
       <c r="F423" t="s">
         <v>151</v>
       </c>
-      <c r="G423" t="s">
+      <c r="G423" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -17019,7 +17023,7 @@
       <c r="F424" t="s">
         <v>151</v>
       </c>
-      <c r="G424" t="s">
+      <c r="G424" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -17043,7 +17047,7 @@
       <c r="F425" t="s">
         <v>1251</v>
       </c>
-      <c r="G425" t="s">
+      <c r="G425" s="2" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -17067,7 +17071,7 @@
       <c r="F426" t="s">
         <v>1034</v>
       </c>
-      <c r="G426" t="s">
+      <c r="G426" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -17091,7 +17095,7 @@
       <c r="F427" t="s">
         <v>1256</v>
       </c>
-      <c r="G427" t="s">
+      <c r="G427" s="2" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -17115,7 +17119,7 @@
       <c r="F428" t="s">
         <v>332</v>
       </c>
-      <c r="G428" t="s">
+      <c r="G428" s="2" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -17139,7 +17143,7 @@
       <c r="F429" t="s">
         <v>25</v>
       </c>
-      <c r="G429" t="s">
+      <c r="G429" s="2" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -17163,7 +17167,7 @@
       <c r="F430" t="s">
         <v>18</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G430" s="2" t="s">
         <v>1267</v>
       </c>
     </row>
@@ -17187,7 +17191,7 @@
       <c r="F431" t="s">
         <v>25</v>
       </c>
-      <c r="G431" t="s">
+      <c r="G431" s="2" t="s">
         <v>1270</v>
       </c>
     </row>
@@ -17211,7 +17215,7 @@
       <c r="F432" t="s">
         <v>259</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G432" s="2" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -17235,7 +17239,7 @@
       <c r="F433" t="s">
         <v>106</v>
       </c>
-      <c r="G433" t="s">
+      <c r="G433" s="2" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -17259,7 +17263,7 @@
       <c r="F434" t="s">
         <v>270</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G434" s="2" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -17283,7 +17287,7 @@
       <c r="F435" t="s">
         <v>528</v>
       </c>
-      <c r="G435" t="s">
+      <c r="G435" s="2" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -17307,7 +17311,7 @@
       <c r="F436" t="s">
         <v>684</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G436" s="2" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -17331,7 +17335,7 @@
       <c r="F437" t="s">
         <v>141</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G437" s="2" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -17355,7 +17359,7 @@
       <c r="F438" t="s">
         <v>289</v>
       </c>
-      <c r="G438" t="s">
+      <c r="G438" s="2" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -17379,7 +17383,7 @@
       <c r="F439" t="s">
         <v>144</v>
       </c>
-      <c r="G439" t="s">
+      <c r="G439" s="2" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -17403,7 +17407,7 @@
       <c r="F440" t="s">
         <v>144</v>
       </c>
-      <c r="G440" t="s">
+      <c r="G440" s="2" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -17427,7 +17431,7 @@
       <c r="F441" t="s">
         <v>711</v>
       </c>
-      <c r="G441" t="s">
+      <c r="G441" s="2" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -17451,7 +17455,7 @@
       <c r="F442" t="s">
         <v>67</v>
       </c>
-      <c r="G442" t="s">
+      <c r="G442" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -17475,7 +17479,7 @@
       <c r="F443" t="s">
         <v>102</v>
       </c>
-      <c r="G443" t="s">
+      <c r="G443" s="2" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -17499,7 +17503,7 @@
       <c r="F444" t="s">
         <v>528</v>
       </c>
-      <c r="G444" t="s">
+      <c r="G444" s="2" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -17523,7 +17527,7 @@
       <c r="F445" t="s">
         <v>366</v>
       </c>
-      <c r="G445" t="s">
+      <c r="G445" s="2" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -17547,7 +17551,7 @@
       <c r="F446" t="s">
         <v>688</v>
       </c>
-      <c r="G446" t="s">
+      <c r="G446" s="2" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -17571,7 +17575,7 @@
       <c r="F447" t="s">
         <v>289</v>
       </c>
-      <c r="G447" t="s">
+      <c r="G447" s="2" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -17595,7 +17599,7 @@
       <c r="F448" t="s">
         <v>289</v>
       </c>
-      <c r="G448" t="s">
+      <c r="G448" s="2" t="s">
         <v>1314</v>
       </c>
     </row>
@@ -17619,7 +17623,7 @@
       <c r="F449" t="s">
         <v>291</v>
       </c>
-      <c r="G449" t="s">
+      <c r="G449" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -17643,7 +17647,7 @@
       <c r="F450" t="s">
         <v>1251</v>
       </c>
-      <c r="G450" t="s">
+      <c r="G450" s="2" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -17667,7 +17671,7 @@
       <c r="F451" t="s">
         <v>1128</v>
       </c>
-      <c r="G451" t="s">
+      <c r="G451" s="2" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -17691,7 +17695,7 @@
       <c r="F452" t="s">
         <v>25</v>
       </c>
-      <c r="G452" t="s">
+      <c r="G452" s="2" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -17715,7 +17719,7 @@
       <c r="F453" t="s">
         <v>76</v>
       </c>
-      <c r="G453" t="s">
+      <c r="G453" s="2" t="s">
         <v>1326</v>
       </c>
     </row>
@@ -17739,7 +17743,7 @@
       <c r="F454" t="s">
         <v>25</v>
       </c>
-      <c r="G454" t="s">
+      <c r="G454" s="2" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -17763,7 +17767,7 @@
       <c r="F455" t="s">
         <v>18</v>
       </c>
-      <c r="G455" t="s">
+      <c r="G455" s="2" t="s">
         <v>1332</v>
       </c>
     </row>
@@ -17787,7 +17791,7 @@
       <c r="F456" t="s">
         <v>14</v>
       </c>
-      <c r="G456" t="s">
+      <c r="G456" s="2" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -17811,7 +17815,7 @@
       <c r="F457" t="s">
         <v>14</v>
       </c>
-      <c r="G457" t="s">
+      <c r="G457" s="2" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -17835,7 +17839,7 @@
       <c r="F458" t="s">
         <v>219</v>
       </c>
-      <c r="G458" t="s">
+      <c r="G458" s="2" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -17859,7 +17863,7 @@
       <c r="F459" t="s">
         <v>102</v>
       </c>
-      <c r="G459" t="s">
+      <c r="G459" s="2" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -17883,7 +17887,7 @@
       <c r="F460" t="s">
         <v>110</v>
       </c>
-      <c r="G460" t="s">
+      <c r="G460" s="2" t="s">
         <v>1346</v>
       </c>
     </row>
@@ -17907,7 +17911,7 @@
       <c r="F461" t="s">
         <v>528</v>
       </c>
-      <c r="G461" t="s">
+      <c r="G461" s="2" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -17931,7 +17935,7 @@
       <c r="F462" t="s">
         <v>89</v>
       </c>
-      <c r="G462" t="s">
+      <c r="G462" s="2" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -17955,7 +17959,7 @@
       <c r="F463" t="s">
         <v>14</v>
       </c>
-      <c r="G463" t="s">
+      <c r="G463" s="2" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -17979,7 +17983,7 @@
       <c r="F464" t="s">
         <v>14</v>
       </c>
-      <c r="G464" t="s">
+      <c r="G464" s="2" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -18003,7 +18007,7 @@
       <c r="F465" t="s">
         <v>18</v>
       </c>
-      <c r="G465" t="s">
+      <c r="G465" s="2" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -18027,7 +18031,7 @@
       <c r="F466" t="s">
         <v>14</v>
       </c>
-      <c r="G466" t="s">
+      <c r="G466" s="2" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -18051,7 +18055,7 @@
       <c r="F467" t="s">
         <v>89</v>
       </c>
-      <c r="G467" t="s">
+      <c r="G467" s="2" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -18075,7 +18079,7 @@
       <c r="F468" t="s">
         <v>14</v>
       </c>
-      <c r="G468" t="s">
+      <c r="G468" s="2" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -18099,7 +18103,7 @@
       <c r="F469" t="s">
         <v>25</v>
       </c>
-      <c r="G469" t="s">
+      <c r="G469" s="2" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -18123,7 +18127,7 @@
       <c r="F470" t="s">
         <v>25</v>
       </c>
-      <c r="G470" t="s">
+      <c r="G470" s="2" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -18147,7 +18151,7 @@
       <c r="F471" t="s">
         <v>503</v>
       </c>
-      <c r="G471" t="s">
+      <c r="G471" s="2" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -18171,7 +18175,7 @@
       <c r="F472" t="s">
         <v>688</v>
       </c>
-      <c r="G472" t="s">
+      <c r="G472" s="2" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -18195,7 +18199,7 @@
       <c r="F473" t="s">
         <v>1236</v>
       </c>
-      <c r="G473" t="s">
+      <c r="G473" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -18219,7 +18223,7 @@
       <c r="F474" t="s">
         <v>124</v>
       </c>
-      <c r="G474" t="s">
+      <c r="G474" s="2" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -18243,7 +18247,7 @@
       <c r="F475" t="s">
         <v>141</v>
       </c>
-      <c r="G475" t="s">
+      <c r="G475" s="2" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -18267,7 +18271,7 @@
       <c r="F476" t="s">
         <v>1031</v>
       </c>
-      <c r="G476" t="s">
+      <c r="G476" s="2" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -18291,7 +18295,7 @@
       <c r="F477" t="s">
         <v>14</v>
       </c>
-      <c r="G477" t="s">
+      <c r="G477" s="2" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -18315,7 +18319,7 @@
       <c r="F478" t="s">
         <v>14</v>
       </c>
-      <c r="G478" t="s">
+      <c r="G478" s="2" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -18339,7 +18343,7 @@
       <c r="F479" t="s">
         <v>102</v>
       </c>
-      <c r="G479" t="s">
+      <c r="G479" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -18363,7 +18367,7 @@
       <c r="F480" t="s">
         <v>366</v>
       </c>
-      <c r="G480" t="s">
+      <c r="G480" s="2" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -18387,7 +18391,7 @@
       <c r="F481" t="s">
         <v>336</v>
       </c>
-      <c r="G481" t="s">
+      <c r="G481" s="2" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -18411,7 +18415,7 @@
       <c r="F482" t="s">
         <v>175</v>
       </c>
-      <c r="G482" t="s">
+      <c r="G482" s="2" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -18435,7 +18439,7 @@
       <c r="F483" t="s">
         <v>1213</v>
       </c>
-      <c r="G483" t="s">
+      <c r="G483" s="2" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -18459,7 +18463,7 @@
       <c r="F484" t="s">
         <v>320</v>
       </c>
-      <c r="G484" t="s">
+      <c r="G484" s="2" t="s">
         <v>1416</v>
       </c>
     </row>
@@ -18483,7 +18487,7 @@
       <c r="F485" t="s">
         <v>10</v>
       </c>
-      <c r="G485" t="s">
+      <c r="G485" s="2" t="s">
         <v>1419</v>
       </c>
     </row>
@@ -18507,7 +18511,7 @@
       <c r="F486" t="s">
         <v>791</v>
       </c>
-      <c r="G486" t="s">
+      <c r="G486" s="2" t="s">
         <v>1422</v>
       </c>
     </row>
@@ -18531,7 +18535,7 @@
       <c r="F487" t="s">
         <v>1251</v>
       </c>
-      <c r="G487" t="s">
+      <c r="G487" s="2" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -18555,7 +18559,7 @@
       <c r="F488" t="s">
         <v>1256</v>
       </c>
-      <c r="G488" t="s">
+      <c r="G488" s="2" t="s">
         <v>1426</v>
       </c>
     </row>
@@ -18579,7 +18583,7 @@
       <c r="F489" t="s">
         <v>1427</v>
       </c>
-      <c r="G489" t="s">
+      <c r="G489" s="2" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -18603,7 +18607,7 @@
       <c r="F490" t="s">
         <v>25</v>
       </c>
-      <c r="G490" t="s">
+      <c r="G490" s="2" t="s">
         <v>1432</v>
       </c>
     </row>
@@ -18627,7 +18631,7 @@
       <c r="F491" t="s">
         <v>14</v>
       </c>
-      <c r="G491" t="s">
+      <c r="G491" s="2" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -18651,7 +18655,7 @@
       <c r="F492" t="s">
         <v>14</v>
       </c>
-      <c r="G492" t="s">
+      <c r="G492" s="2" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -18675,7 +18679,7 @@
       <c r="F493" t="s">
         <v>14</v>
       </c>
-      <c r="G493" t="s">
+      <c r="G493" s="2" t="s">
         <v>1441</v>
       </c>
     </row>
@@ -18699,7 +18703,7 @@
       <c r="F494" t="s">
         <v>14</v>
       </c>
-      <c r="G494" t="s">
+      <c r="G494" s="2" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -18723,7 +18727,7 @@
       <c r="F495" t="s">
         <v>219</v>
       </c>
-      <c r="G495" t="s">
+      <c r="G495" s="2" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -18747,7 +18751,7 @@
       <c r="F496" t="s">
         <v>18</v>
       </c>
-      <c r="G496" t="s">
+      <c r="G496" s="2" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -18771,7 +18775,7 @@
       <c r="F497" t="s">
         <v>259</v>
       </c>
-      <c r="G497" t="s">
+      <c r="G497" s="2" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -18795,7 +18799,7 @@
       <c r="F498" t="s">
         <v>14</v>
       </c>
-      <c r="G498" t="s">
+      <c r="G498" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -18819,7 +18823,7 @@
       <c r="F499" t="s">
         <v>89</v>
       </c>
-      <c r="G499" t="s">
+      <c r="G499" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -18843,7 +18847,7 @@
       <c r="F500" t="s">
         <v>332</v>
       </c>
-      <c r="G500" t="s">
+      <c r="G500" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -18867,7 +18871,7 @@
       <c r="F501" t="s">
         <v>106</v>
       </c>
-      <c r="G501" t="s">
+      <c r="G501" s="2" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -18891,7 +18895,7 @@
       <c r="F502" t="s">
         <v>528</v>
       </c>
-      <c r="G502" t="s">
+      <c r="G502" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -18915,7 +18919,7 @@
       <c r="F503" t="s">
         <v>366</v>
       </c>
-      <c r="G503" t="s">
+      <c r="G503" s="2" t="s">
         <v>1469</v>
       </c>
     </row>
@@ -18939,7 +18943,7 @@
       <c r="F504" t="s">
         <v>688</v>
       </c>
-      <c r="G504" t="s">
+      <c r="G504" s="2" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -18963,7 +18967,7 @@
       <c r="F505" t="s">
         <v>289</v>
       </c>
-      <c r="G505" t="s">
+      <c r="G505" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -18987,7 +18991,7 @@
       <c r="F506" t="s">
         <v>144</v>
       </c>
-      <c r="G506" t="s">
+      <c r="G506" s="2" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -19011,7 +19015,7 @@
       <c r="F507" t="s">
         <v>895</v>
       </c>
-      <c r="G507" t="s">
+      <c r="G507" s="2" t="s">
         <v>1479</v>
       </c>
     </row>
@@ -19035,7 +19039,7 @@
       <c r="F508" t="s">
         <v>1256</v>
       </c>
-      <c r="G508" t="s">
+      <c r="G508" s="2" t="s">
         <v>1481</v>
       </c>
     </row>
@@ -19059,7 +19063,7 @@
       <c r="F509" t="s">
         <v>1482</v>
       </c>
-      <c r="G509" t="s">
+      <c r="G509" s="2" t="s">
         <v>1483</v>
       </c>
     </row>
@@ -19083,7 +19087,7 @@
       <c r="F510" t="s">
         <v>219</v>
       </c>
-      <c r="G510" t="s">
+      <c r="G510" s="2" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -19107,7 +19111,7 @@
       <c r="F511" t="s">
         <v>1487</v>
       </c>
-      <c r="G511" t="s">
+      <c r="G511" s="2" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -19131,7 +19135,7 @@
       <c r="F512" t="s">
         <v>219</v>
       </c>
-      <c r="G512" t="s">
+      <c r="G512" s="2" t="s">
         <v>1490</v>
       </c>
     </row>
@@ -19155,7 +19159,7 @@
       <c r="F513" t="s">
         <v>219</v>
       </c>
-      <c r="G513" t="s">
+      <c r="G513" s="2" t="s">
         <v>1492</v>
       </c>
     </row>
@@ -19179,7 +19183,7 @@
       <c r="F514" t="s">
         <v>67</v>
       </c>
-      <c r="G514" t="s">
+      <c r="G514" s="2" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -19203,7 +19207,7 @@
       <c r="F515" t="s">
         <v>76</v>
       </c>
-      <c r="G515" t="s">
+      <c r="G515" s="2" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -19227,7 +19231,7 @@
       <c r="F516" t="s">
         <v>332</v>
       </c>
-      <c r="G516" t="s">
+      <c r="G516" s="2" t="s">
         <v>332</v>
       </c>
     </row>
@@ -19251,7 +19255,7 @@
       <c r="F517" t="s">
         <v>791</v>
       </c>
-      <c r="G517" t="s">
+      <c r="G517" s="2" t="s">
         <v>1499</v>
       </c>
     </row>
@@ -19275,7 +19279,7 @@
       <c r="F518" t="s">
         <v>694</v>
       </c>
-      <c r="G518" t="s">
+      <c r="G518" s="2" t="s">
         <v>1503</v>
       </c>
     </row>
@@ -19299,7 +19303,7 @@
       <c r="F519" t="s">
         <v>151</v>
       </c>
-      <c r="G519" t="s">
+      <c r="G519" s="2" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -19323,7 +19327,7 @@
       <c r="F520" t="s">
         <v>151</v>
       </c>
-      <c r="G520" t="s">
+      <c r="G520" s="2" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -19347,7 +19351,7 @@
       <c r="F521" t="s">
         <v>151</v>
       </c>
-      <c r="G521" t="s">
+      <c r="G521" s="2" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -19371,7 +19375,7 @@
       <c r="F522" t="s">
         <v>291</v>
       </c>
-      <c r="G522" t="s">
+      <c r="G522" s="2" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -19395,7 +19399,7 @@
       <c r="F523" t="s">
         <v>291</v>
       </c>
-      <c r="G523" t="s">
+      <c r="G523" s="2" t="s">
         <v>1513</v>
       </c>
     </row>
@@ -19419,7 +19423,7 @@
       <c r="F524" t="s">
         <v>291</v>
       </c>
-      <c r="G524" t="s">
+      <c r="G524" s="2" t="s">
         <v>1515</v>
       </c>
     </row>
@@ -19443,7 +19447,7 @@
       <c r="F525" t="s">
         <v>291</v>
       </c>
-      <c r="G525" t="s">
+      <c r="G525" s="2" t="s">
         <v>1517</v>
       </c>
     </row>
@@ -19467,7 +19471,7 @@
       <c r="F526" t="s">
         <v>14</v>
       </c>
-      <c r="G526" t="s">
+      <c r="G526" s="2" t="s">
         <v>1519</v>
       </c>
     </row>
@@ -19491,7 +19495,7 @@
       <c r="F527" t="s">
         <v>25</v>
       </c>
-      <c r="G527" t="s">
+      <c r="G527" s="2" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -19515,7 +19519,7 @@
       <c r="F528" t="s">
         <v>1523</v>
       </c>
-      <c r="G528" t="s">
+      <c r="G528" s="2" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -19539,7 +19543,7 @@
       <c r="F529" t="s">
         <v>14</v>
       </c>
-      <c r="G529" t="s">
+      <c r="G529" s="2" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -19563,7 +19567,7 @@
       <c r="F530" t="s">
         <v>25</v>
       </c>
-      <c r="G530" t="s">
+      <c r="G530" s="2" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -19587,7 +19591,7 @@
       <c r="F531" t="s">
         <v>18</v>
       </c>
-      <c r="G531" t="s">
+      <c r="G531" s="2" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -19611,7 +19615,7 @@
       <c r="F532" t="s">
         <v>219</v>
       </c>
-      <c r="G532" t="s">
+      <c r="G532" s="2" t="s">
         <v>1536</v>
       </c>
     </row>
@@ -19635,7 +19639,7 @@
       <c r="F533" t="s">
         <v>14</v>
       </c>
-      <c r="G533" t="s">
+      <c r="G533" s="2" t="s">
         <v>1539</v>
       </c>
     </row>
@@ -19659,7 +19663,7 @@
       <c r="F534" t="s">
         <v>1542</v>
       </c>
-      <c r="G534" t="s">
+      <c r="G534" s="2" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -19683,7 +19687,7 @@
       <c r="F535" t="s">
         <v>14</v>
       </c>
-      <c r="G535" t="s">
+      <c r="G535" s="2" t="s">
         <v>1546</v>
       </c>
     </row>
@@ -19707,7 +19711,7 @@
       <c r="F536" t="s">
         <v>89</v>
       </c>
-      <c r="G536" t="s">
+      <c r="G536" s="2" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -19731,7 +19735,7 @@
       <c r="F537" t="s">
         <v>18</v>
       </c>
-      <c r="G537" t="s">
+      <c r="G537" s="2" t="s">
         <v>1552</v>
       </c>
     </row>
@@ -19755,7 +19759,7 @@
       <c r="F538" t="s">
         <v>141</v>
       </c>
-      <c r="G538" t="s">
+      <c r="G538" s="2" t="s">
         <v>1554</v>
       </c>
     </row>
@@ -19779,7 +19783,7 @@
       <c r="F539" t="s">
         <v>1251</v>
       </c>
-      <c r="G539" t="s">
+      <c r="G539" s="2" t="s">
         <v>1556</v>
       </c>
     </row>
@@ -19803,7 +19807,7 @@
       <c r="F540" t="s">
         <v>14</v>
       </c>
-      <c r="G540" t="s">
+      <c r="G540" s="2" t="s">
         <v>1560</v>
       </c>
     </row>
@@ -19827,7 +19831,7 @@
       <c r="F541" t="s">
         <v>14</v>
       </c>
-      <c r="G541" t="s">
+      <c r="G541" s="2" t="s">
         <v>1563</v>
       </c>
     </row>
@@ -19851,7 +19855,7 @@
       <c r="F542" t="s">
         <v>14</v>
       </c>
-      <c r="G542" t="s">
+      <c r="G542" s="2" t="s">
         <v>1564</v>
       </c>
     </row>
@@ -19875,7 +19879,7 @@
       <c r="F543" t="s">
         <v>266</v>
       </c>
-      <c r="G543" t="s">
+      <c r="G543" s="2" t="s">
         <v>1566</v>
       </c>
     </row>
@@ -19899,7 +19903,7 @@
       <c r="F544" t="s">
         <v>106</v>
       </c>
-      <c r="G544" t="s">
+      <c r="G544" s="2" t="s">
         <v>1570</v>
       </c>
     </row>
@@ -19923,7 +19927,7 @@
       <c r="F545" t="s">
         <v>791</v>
       </c>
-      <c r="G545" t="s">
+      <c r="G545" s="2" t="s">
         <v>1573</v>
       </c>
     </row>
@@ -19947,7 +19951,7 @@
       <c r="F546" t="s">
         <v>276</v>
       </c>
-      <c r="G546" t="s">
+      <c r="G546" s="2" t="s">
         <v>1574</v>
       </c>
     </row>
@@ -19971,7 +19975,7 @@
       <c r="F547" t="s">
         <v>688</v>
       </c>
-      <c r="G547" t="s">
+      <c r="G547" s="2" t="s">
         <v>1577</v>
       </c>
     </row>
@@ -19995,7 +19999,7 @@
       <c r="F548" t="s">
         <v>694</v>
       </c>
-      <c r="G548" t="s">
+      <c r="G548" s="2" t="s">
         <v>1580</v>
       </c>
     </row>
@@ -20019,7 +20023,7 @@
       <c r="F549" t="s">
         <v>134</v>
       </c>
-      <c r="G549" t="s">
+      <c r="G549" s="2" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -20043,7 +20047,7 @@
       <c r="F550" t="s">
         <v>141</v>
       </c>
-      <c r="G550" t="s">
+      <c r="G550" s="2" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -20067,7 +20071,7 @@
       <c r="F551" t="s">
         <v>289</v>
       </c>
-      <c r="G551" t="s">
+      <c r="G551" s="2" t="s">
         <v>1587</v>
       </c>
     </row>
@@ -20091,7 +20095,7 @@
       <c r="F552" t="s">
         <v>1427</v>
       </c>
-      <c r="G552" t="s">
+      <c r="G552" s="2" t="s">
         <v>1588</v>
       </c>
     </row>
@@ -20115,7 +20119,7 @@
       <c r="F553" t="s">
         <v>14</v>
       </c>
-      <c r="G553" t="s">
+      <c r="G553" s="2" t="s">
         <v>1592</v>
       </c>
     </row>
@@ -20139,7 +20143,7 @@
       <c r="F554" t="s">
         <v>25</v>
       </c>
-      <c r="G554" t="s">
+      <c r="G554" s="2" t="s">
         <v>1595</v>
       </c>
     </row>
@@ -20163,7 +20167,7 @@
       <c r="F555" t="s">
         <v>18</v>
       </c>
-      <c r="G555" t="s">
+      <c r="G555" s="2" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -20187,7 +20191,7 @@
       <c r="F556" t="s">
         <v>320</v>
       </c>
-      <c r="G556" t="s">
+      <c r="G556" s="2" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -20211,7 +20215,7 @@
       <c r="F557" t="s">
         <v>1602</v>
       </c>
-      <c r="G557" t="s">
+      <c r="G557" s="2" t="s">
         <v>1603</v>
       </c>
     </row>
@@ -20235,7 +20239,7 @@
       <c r="F558" t="s">
         <v>18</v>
       </c>
-      <c r="G558" t="s">
+      <c r="G558" s="2" t="s">
         <v>1607</v>
       </c>
     </row>
@@ -20259,7 +20263,7 @@
       <c r="F559" t="s">
         <v>89</v>
       </c>
-      <c r="G559" t="s">
+      <c r="G559" s="2" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -20283,7 +20287,7 @@
       <c r="F560" t="s">
         <v>18</v>
       </c>
-      <c r="G560" t="s">
+      <c r="G560" s="2" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -20307,7 +20311,7 @@
       <c r="F561" t="s">
         <v>102</v>
       </c>
-      <c r="G561" t="s">
+      <c r="G561" s="2" t="s">
         <v>1616</v>
       </c>
     </row>
@@ -20331,7 +20335,7 @@
       <c r="F562" t="s">
         <v>117</v>
       </c>
-      <c r="G562" t="s">
+      <c r="G562" s="2" t="s">
         <v>1618</v>
       </c>
     </row>
@@ -20355,7 +20359,7 @@
       <c r="F563" t="s">
         <v>128</v>
       </c>
-      <c r="G563" t="s">
+      <c r="G563" s="2" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -20379,7 +20383,7 @@
       <c r="F564" t="s">
         <v>1482</v>
       </c>
-      <c r="G564" t="s">
+      <c r="G564" s="2" t="s">
         <v>1623</v>
       </c>
     </row>
@@ -20403,7 +20407,7 @@
       <c r="F565" t="s">
         <v>14</v>
       </c>
-      <c r="G565" t="s">
+      <c r="G565" s="2" t="s">
         <v>1626</v>
       </c>
     </row>
@@ -20427,7 +20431,7 @@
       <c r="F566" t="s">
         <v>89</v>
       </c>
-      <c r="G566" t="s">
+      <c r="G566" s="2" t="s">
         <v>1629</v>
       </c>
     </row>
@@ -20451,7 +20455,7 @@
       <c r="F567" t="s">
         <v>14</v>
       </c>
-      <c r="G567" t="s">
+      <c r="G567" s="2" t="s">
         <v>1632</v>
       </c>
     </row>
@@ -20475,7 +20479,7 @@
       <c r="F568" t="s">
         <v>14</v>
       </c>
-      <c r="G568" t="s">
+      <c r="G568" s="2" t="s">
         <v>1635</v>
       </c>
     </row>
@@ -20499,7 +20503,7 @@
       <c r="F569" t="s">
         <v>18</v>
       </c>
-      <c r="G569" t="s">
+      <c r="G569" s="2" t="s">
         <v>1638</v>
       </c>
     </row>
@@ -20523,7 +20527,7 @@
       <c r="F570" t="s">
         <v>14</v>
       </c>
-      <c r="G570" t="s">
+      <c r="G570" s="2" t="s">
         <v>1641</v>
       </c>
     </row>
@@ -20547,7 +20551,7 @@
       <c r="F571" t="s">
         <v>259</v>
       </c>
-      <c r="G571" t="s">
+      <c r="G571" s="2" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -20571,7 +20575,7 @@
       <c r="F572" t="s">
         <v>18</v>
       </c>
-      <c r="G572" t="s">
+      <c r="G572" s="2" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -20595,7 +20599,7 @@
       <c r="F573" t="s">
         <v>14</v>
       </c>
-      <c r="G573" t="s">
+      <c r="G573" s="2" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -20619,7 +20623,7 @@
       <c r="F574" t="s">
         <v>383</v>
       </c>
-      <c r="G574" t="s">
+      <c r="G574" s="2" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -20643,7 +20647,7 @@
       <c r="F575" t="s">
         <v>14</v>
       </c>
-      <c r="G575" t="s">
+      <c r="G575" s="2" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -20667,7 +20671,7 @@
       <c r="F576" t="s">
         <v>14</v>
       </c>
-      <c r="G576" t="s">
+      <c r="G576" s="2" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -20691,7 +20695,7 @@
       <c r="F577" t="s">
         <v>14</v>
       </c>
-      <c r="G577" t="s">
+      <c r="G577" s="2" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -20715,7 +20719,7 @@
       <c r="F578" t="s">
         <v>14</v>
       </c>
-      <c r="G578" t="s">
+      <c r="G578" s="2" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -20739,7 +20743,7 @@
       <c r="F579" t="s">
         <v>89</v>
       </c>
-      <c r="G579" t="s">
+      <c r="G579" s="2" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -20763,7 +20767,7 @@
       <c r="F580" t="s">
         <v>14</v>
       </c>
-      <c r="G580" t="s">
+      <c r="G580" s="2" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -20787,7 +20791,7 @@
       <c r="F581" t="s">
         <v>25</v>
       </c>
-      <c r="G581" t="s">
+      <c r="G581" s="2" t="s">
         <v>1673</v>
       </c>
     </row>
@@ -20811,7 +20815,7 @@
       <c r="F582" t="s">
         <v>25</v>
       </c>
-      <c r="G582" t="s">
+      <c r="G582" s="2" t="s">
         <v>1675</v>
       </c>
     </row>
@@ -20835,7 +20839,7 @@
       <c r="F583" t="s">
         <v>14</v>
       </c>
-      <c r="G583" t="s">
+      <c r="G583" s="2" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -20859,7 +20863,7 @@
       <c r="F584" t="s">
         <v>14</v>
       </c>
-      <c r="G584" t="s">
+      <c r="G584" s="2" t="s">
         <v>1681</v>
       </c>
     </row>
@@ -20883,7 +20887,7 @@
       <c r="F585" t="s">
         <v>106</v>
       </c>
-      <c r="G585" t="s">
+      <c r="G585" s="2" t="s">
         <v>1684</v>
       </c>
     </row>
@@ -20907,7 +20911,7 @@
       <c r="F586" t="s">
         <v>110</v>
       </c>
-      <c r="G586" t="s">
+      <c r="G586" s="2" t="s">
         <v>1687</v>
       </c>
     </row>
@@ -20931,7 +20935,7 @@
       <c r="F587" t="s">
         <v>366</v>
       </c>
-      <c r="G587" t="s">
+      <c r="G587" s="2" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -20955,7 +20959,7 @@
       <c r="F588" t="s">
         <v>791</v>
       </c>
-      <c r="G588" t="s">
+      <c r="G588" s="2" t="s">
         <v>1692</v>
       </c>
     </row>
@@ -20979,7 +20983,7 @@
       <c r="F589" t="s">
         <v>879</v>
       </c>
-      <c r="G589" t="s">
+      <c r="G589" s="2" t="s">
         <v>1694</v>
       </c>
     </row>
@@ -21003,7 +21007,7 @@
       <c r="F590" t="s">
         <v>684</v>
       </c>
-      <c r="G590" t="s">
+      <c r="G590" s="2" t="s">
         <v>1697</v>
       </c>
     </row>
@@ -21027,7 +21031,7 @@
       <c r="F591" t="s">
         <v>684</v>
       </c>
-      <c r="G591" t="s">
+      <c r="G591" s="2" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -21051,7 +21055,7 @@
       <c r="F592" t="s">
         <v>276</v>
       </c>
-      <c r="G592" t="s">
+      <c r="G592" s="2" t="s">
         <v>1701</v>
       </c>
     </row>
@@ -21075,7 +21079,7 @@
       <c r="F593" t="s">
         <v>1704</v>
       </c>
-      <c r="G593" t="s">
+      <c r="G593" s="2" t="s">
         <v>1705</v>
       </c>
     </row>
@@ -21099,7 +21103,7 @@
       <c r="F594" t="s">
         <v>124</v>
       </c>
-      <c r="G594" t="s">
+      <c r="G594" s="2" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -21123,7 +21127,7 @@
       <c r="F595" t="s">
         <v>141</v>
       </c>
-      <c r="G595" t="s">
+      <c r="G595" s="2" t="s">
         <v>1710</v>
       </c>
     </row>
@@ -21147,7 +21151,7 @@
       <c r="F596" t="s">
         <v>734</v>
       </c>
-      <c r="G596" t="s">
+      <c r="G596" s="2" t="s">
         <v>1711</v>
       </c>
     </row>
@@ -21171,7 +21175,7 @@
       <c r="F597" t="s">
         <v>14</v>
       </c>
-      <c r="G597" t="s">
+      <c r="G597" s="2" t="s">
         <v>1713</v>
       </c>
     </row>
@@ -21195,7 +21199,7 @@
       <c r="F598" t="s">
         <v>879</v>
       </c>
-      <c r="G598" t="s">
+      <c r="G598" s="2" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -21219,7 +21223,7 @@
       <c r="F599" t="s">
         <v>1128</v>
       </c>
-      <c r="G599" t="s">
+      <c r="G599" s="2" t="s">
         <v>1718</v>
       </c>
     </row>
@@ -21243,7 +21247,7 @@
       <c r="F600" t="s">
         <v>791</v>
       </c>
-      <c r="G600" t="s">
+      <c r="G600" s="2" t="s">
         <v>1721</v>
       </c>
     </row>
@@ -21267,7 +21271,7 @@
       <c r="F601" t="s">
         <v>14</v>
       </c>
-      <c r="G601" t="s">
+      <c r="G601" s="2" t="s">
         <v>1724</v>
       </c>
     </row>
@@ -21291,7 +21295,7 @@
       <c r="F602" t="s">
         <v>14</v>
       </c>
-      <c r="G602" t="s">
+      <c r="G602" s="2" t="s">
         <v>1726</v>
       </c>
     </row>
@@ -21315,7 +21319,7 @@
       <c r="F603" t="s">
         <v>14</v>
       </c>
-      <c r="G603" t="s">
+      <c r="G603" s="2" t="s">
         <v>1727</v>
       </c>
     </row>
@@ -21339,7 +21343,7 @@
       <c r="F604" t="s">
         <v>1731</v>
       </c>
-      <c r="G604" t="s">
+      <c r="G604" s="2" t="s">
         <v>1732</v>
       </c>
     </row>
@@ -21363,7 +21367,7 @@
       <c r="F605" t="s">
         <v>25</v>
       </c>
-      <c r="G605" t="s">
+      <c r="G605" s="2" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -21387,7 +21391,7 @@
       <c r="F606" t="s">
         <v>14</v>
       </c>
-      <c r="G606" t="s">
+      <c r="G606" s="2" t="s">
         <v>1738</v>
       </c>
     </row>
@@ -21411,7 +21415,7 @@
       <c r="F607" t="s">
         <v>14</v>
       </c>
-      <c r="G607" t="s">
+      <c r="G607" s="2" t="s">
         <v>1740</v>
       </c>
     </row>
@@ -21435,7 +21439,7 @@
       <c r="F608" t="s">
         <v>208</v>
       </c>
-      <c r="G608" t="s">
+      <c r="G608" s="2" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -21459,7 +21463,7 @@
       <c r="F609" t="s">
         <v>208</v>
       </c>
-      <c r="G609" t="s">
+      <c r="G609" s="2" t="s">
         <v>1746</v>
       </c>
     </row>
@@ -21483,7 +21487,7 @@
       <c r="F610" t="s">
         <v>14</v>
       </c>
-      <c r="G610" t="s">
+      <c r="G610" s="2" t="s">
         <v>1749</v>
       </c>
     </row>
@@ -21507,7 +21511,7 @@
       <c r="F611" t="s">
         <v>383</v>
       </c>
-      <c r="G611" t="s">
+      <c r="G611" s="2" t="s">
         <v>1752</v>
       </c>
     </row>
@@ -21531,7 +21535,7 @@
       <c r="F612" t="s">
         <v>14</v>
       </c>
-      <c r="G612" t="s">
+      <c r="G612" s="2" t="s">
         <v>1755</v>
       </c>
     </row>
@@ -21555,7 +21559,7 @@
       <c r="F613" t="s">
         <v>332</v>
       </c>
-      <c r="G613" t="s">
+      <c r="G613" s="2" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -21579,7 +21583,7 @@
       <c r="F614" t="s">
         <v>879</v>
       </c>
-      <c r="G614" t="s">
+      <c r="G614" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -21603,7 +21607,7 @@
       <c r="F615" t="s">
         <v>688</v>
       </c>
-      <c r="G615" t="s">
+      <c r="G615" s="2" t="s">
         <v>1763</v>
       </c>
     </row>
@@ -21627,7 +21631,7 @@
       <c r="F616" t="s">
         <v>283</v>
       </c>
-      <c r="G616" t="s">
+      <c r="G616" s="2" t="s">
         <v>1766</v>
       </c>
     </row>
@@ -21651,7 +21655,7 @@
       <c r="F617" t="s">
         <v>102</v>
       </c>
-      <c r="G617" t="s">
+      <c r="G617" s="2" t="s">
         <v>1767</v>
       </c>
     </row>
@@ -21675,7 +21679,7 @@
       <c r="F618" t="s">
         <v>366</v>
       </c>
-      <c r="G618" t="s">
+      <c r="G618" s="2" t="s">
         <v>1771</v>
       </c>
     </row>
@@ -21699,7 +21703,7 @@
       <c r="F619" t="s">
         <v>366</v>
       </c>
-      <c r="G619" t="s">
+      <c r="G619" s="2" t="s">
         <v>1772</v>
       </c>
     </row>
@@ -21723,7 +21727,7 @@
       <c r="F620" t="s">
         <v>982</v>
       </c>
-      <c r="G620" t="s">
+      <c r="G620" s="2" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -21747,7 +21751,7 @@
       <c r="F621" t="s">
         <v>128</v>
       </c>
-      <c r="G621" t="s">
+      <c r="G621" s="2" t="s">
         <v>1778</v>
       </c>
     </row>
@@ -21771,7 +21775,7 @@
       <c r="F622" t="s">
         <v>14</v>
       </c>
-      <c r="G622" t="s">
+      <c r="G622" s="2" t="s">
         <v>1782</v>
       </c>
     </row>
@@ -21795,7 +21799,7 @@
       <c r="F623" t="s">
         <v>14</v>
       </c>
-      <c r="G623" t="s">
+      <c r="G623" s="2" t="s">
         <v>1785</v>
       </c>
     </row>
@@ -21819,7 +21823,7 @@
       <c r="F624" t="s">
         <v>14</v>
       </c>
-      <c r="G624" t="s">
+      <c r="G624" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
@@ -21843,7 +21847,7 @@
       <c r="F625" t="s">
         <v>25</v>
       </c>
-      <c r="G625" t="s">
+      <c r="G625" s="2" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -21867,7 +21871,7 @@
       <c r="F626" t="s">
         <v>14</v>
       </c>
-      <c r="G626" t="s">
+      <c r="G626" s="2" t="s">
         <v>1794</v>
       </c>
     </row>
@@ -21891,7 +21895,7 @@
       <c r="F627" t="s">
         <v>14</v>
       </c>
-      <c r="G627" t="s">
+      <c r="G627" s="2" t="s">
         <v>1795</v>
       </c>
     </row>
@@ -21915,7 +21919,7 @@
       <c r="F628" t="s">
         <v>25</v>
       </c>
-      <c r="G628" t="s">
+      <c r="G628" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -21939,7 +21943,7 @@
       <c r="F629" t="s">
         <v>781</v>
       </c>
-      <c r="G629" t="s">
+      <c r="G629" s="2" t="s">
         <v>1802</v>
       </c>
     </row>
@@ -21963,7 +21967,7 @@
       <c r="F630" t="s">
         <v>106</v>
       </c>
-      <c r="G630" t="s">
+      <c r="G630" s="2" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -21987,7 +21991,7 @@
       <c r="F631" t="s">
         <v>528</v>
       </c>
-      <c r="G631" t="s">
+      <c r="G631" s="2" t="s">
         <v>1807</v>
       </c>
     </row>
@@ -22011,7 +22015,7 @@
       <c r="F632" t="s">
         <v>688</v>
       </c>
-      <c r="G632" t="s">
+      <c r="G632" s="2" t="s">
         <v>1810</v>
       </c>
     </row>
@@ -22035,7 +22039,7 @@
       <c r="F633" t="s">
         <v>982</v>
       </c>
-      <c r="G633" t="s">
+      <c r="G633" s="2" t="s">
         <v>1813</v>
       </c>
     </row>
@@ -22059,7 +22063,7 @@
       <c r="F634" t="s">
         <v>289</v>
       </c>
-      <c r="G634" t="s">
+      <c r="G634" s="2" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -22083,7 +22087,7 @@
       <c r="F635" t="s">
         <v>14</v>
       </c>
-      <c r="G635" t="s">
+      <c r="G635" s="2" t="s">
         <v>1819</v>
       </c>
     </row>
@@ -22107,7 +22111,7 @@
       <c r="F636" t="s">
         <v>14</v>
       </c>
-      <c r="G636" t="s">
+      <c r="G636" s="2" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -22131,7 +22135,7 @@
       <c r="F637" t="s">
         <v>671</v>
       </c>
-      <c r="G637" t="s">
+      <c r="G637" s="2" t="s">
         <v>1824</v>
       </c>
     </row>
@@ -22155,7 +22159,7 @@
       <c r="F638" t="s">
         <v>289</v>
       </c>
-      <c r="G638" t="s">
+      <c r="G638" s="2" t="s">
         <v>1828</v>
       </c>
     </row>
@@ -22179,7 +22183,7 @@
       <c r="F639" t="s">
         <v>1427</v>
       </c>
-      <c r="G639" t="s">
+      <c r="G639" s="2" t="s">
         <v>1829</v>
       </c>
     </row>
@@ -22203,7 +22207,7 @@
       <c r="F640" t="s">
         <v>10</v>
       </c>
-      <c r="G640" t="s">
+      <c r="G640" s="2" t="s">
         <v>1832</v>
       </c>
     </row>
@@ -22227,7 +22231,7 @@
       <c r="F641" t="s">
         <v>102</v>
       </c>
-      <c r="G641" t="s">
+      <c r="G641" s="2" t="s">
         <v>1835</v>
       </c>
     </row>
@@ -22251,7 +22255,7 @@
       <c r="F642" t="s">
         <v>528</v>
       </c>
-      <c r="G642" t="s">
+      <c r="G642" s="2" t="s">
         <v>1838</v>
       </c>
     </row>
@@ -22275,7 +22279,7 @@
       <c r="F643" t="s">
         <v>117</v>
       </c>
-      <c r="G643" t="s">
+      <c r="G643" s="2" t="s">
         <v>1841</v>
       </c>
     </row>
@@ -22299,7 +22303,7 @@
       <c r="F644" t="s">
         <v>289</v>
       </c>
-      <c r="G644" t="s">
+      <c r="G644" s="2" t="s">
         <v>1844</v>
       </c>
     </row>
@@ -22323,7 +22327,7 @@
       <c r="F645" t="s">
         <v>1848</v>
       </c>
-      <c r="G645" t="s">
+      <c r="G645" s="2" t="s">
         <v>1849</v>
       </c>
     </row>
@@ -22347,7 +22351,7 @@
       <c r="F646" t="s">
         <v>14</v>
       </c>
-      <c r="G646" t="s">
+      <c r="G646" s="2" t="s">
         <v>1852</v>
       </c>
     </row>
@@ -22371,7 +22375,7 @@
       <c r="F647" t="s">
         <v>25</v>
       </c>
-      <c r="G647" t="s">
+      <c r="G647" s="2" t="s">
         <v>1855</v>
       </c>
     </row>
@@ -22395,7 +22399,7 @@
       <c r="F648" t="s">
         <v>14</v>
       </c>
-      <c r="G648" t="s">
+      <c r="G648" s="2" t="s">
         <v>1858</v>
       </c>
     </row>
@@ -22419,7 +22423,7 @@
       <c r="F649" t="s">
         <v>899</v>
       </c>
-      <c r="G649" t="s">
+      <c r="G649" s="2" t="s">
         <v>1861</v>
       </c>
     </row>
@@ -22443,7 +22447,7 @@
       <c r="F650" t="s">
         <v>791</v>
       </c>
-      <c r="G650" t="s">
+      <c r="G650" s="2" t="s">
         <v>1864</v>
       </c>
     </row>
@@ -22467,7 +22471,7 @@
       <c r="F651" t="s">
         <v>688</v>
       </c>
-      <c r="G651" t="s">
+      <c r="G651" s="2" t="s">
         <v>1867</v>
       </c>
     </row>
@@ -22491,7 +22495,7 @@
       <c r="F652" t="s">
         <v>144</v>
       </c>
-      <c r="G652" t="s">
+      <c r="G652" s="2" t="s">
         <v>1869</v>
       </c>
     </row>
@@ -22515,7 +22519,7 @@
       <c r="F653" t="s">
         <v>146</v>
       </c>
-      <c r="G653" t="s">
+      <c r="G653" s="2" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -22539,7 +22543,7 @@
       <c r="F654" t="s">
         <v>146</v>
       </c>
-      <c r="G654" t="s">
+      <c r="G654" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -22563,7 +22567,7 @@
       <c r="F655" t="s">
         <v>1878</v>
       </c>
-      <c r="G655" t="s">
+      <c r="G655" s="2" t="s">
         <v>1879</v>
       </c>
     </row>
@@ -22587,7 +22591,7 @@
       <c r="F656" t="s">
         <v>14</v>
       </c>
-      <c r="G656" t="s">
+      <c r="G656" s="2" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -22611,7 +22615,7 @@
       <c r="F657" t="s">
         <v>14</v>
       </c>
-      <c r="G657" t="s">
+      <c r="G657" s="2" t="s">
         <v>1885</v>
       </c>
     </row>
@@ -22635,7 +22639,7 @@
       <c r="F658" t="s">
         <v>89</v>
       </c>
-      <c r="G658" t="s">
+      <c r="G658" s="2" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -22659,7 +22663,7 @@
       <c r="F659" t="s">
         <v>14</v>
       </c>
-      <c r="G659" t="s">
+      <c r="G659" s="2" t="s">
         <v>1891</v>
       </c>
     </row>
@@ -22683,7 +22687,7 @@
       <c r="F660" t="s">
         <v>25</v>
       </c>
-      <c r="G660" t="s">
+      <c r="G660" s="2" t="s">
         <v>1894</v>
       </c>
     </row>
@@ -22707,7 +22711,7 @@
       <c r="F661" t="s">
         <v>528</v>
       </c>
-      <c r="G661" t="s">
+      <c r="G661" s="2" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -22731,7 +22735,7 @@
       <c r="F662" t="s">
         <v>276</v>
       </c>
-      <c r="G662" t="s">
+      <c r="G662" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
@@ -22755,7 +22759,7 @@
       <c r="F663" t="s">
         <v>688</v>
       </c>
-      <c r="G663" t="s">
+      <c r="G663" s="2" t="s">
         <v>1902</v>
       </c>
     </row>
@@ -22779,7 +22783,7 @@
       <c r="F664" t="s">
         <v>283</v>
       </c>
-      <c r="G664" t="s">
+      <c r="G664" s="2" t="s">
         <v>1904</v>
       </c>
     </row>
@@ -22803,7 +22807,7 @@
       <c r="F665" t="s">
         <v>711</v>
       </c>
-      <c r="G665" t="s">
+      <c r="G665" s="2" t="s">
         <v>1906</v>
       </c>
     </row>
@@ -22827,7 +22831,7 @@
       <c r="F666" t="s">
         <v>959</v>
       </c>
-      <c r="G666" t="s">
+      <c r="G666" s="2" t="s">
         <v>1908</v>
       </c>
     </row>
@@ -22851,7 +22855,7 @@
       <c r="F667" t="s">
         <v>1031</v>
       </c>
-      <c r="G667" t="s">
+      <c r="G667" s="2" t="s">
         <v>1910</v>
       </c>
     </row>
@@ -22875,7 +22879,7 @@
       <c r="F668" t="s">
         <v>1034</v>
       </c>
-      <c r="G668" t="s">
+      <c r="G668" s="2" t="s">
         <v>1912</v>
       </c>
     </row>
@@ -22899,7 +22903,7 @@
       <c r="F669" t="s">
         <v>717</v>
       </c>
-      <c r="G669" t="s">
+      <c r="G669" s="2" t="s">
         <v>1914</v>
       </c>
     </row>
@@ -22923,7 +22927,7 @@
       <c r="F670" t="s">
         <v>320</v>
       </c>
-      <c r="G670" t="s">
+      <c r="G670" s="2" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -22947,7 +22951,7 @@
       <c r="F671" t="s">
         <v>14</v>
       </c>
-      <c r="G671" t="s">
+      <c r="G671" s="2" t="s">
         <v>1921</v>
       </c>
     </row>
@@ -22971,7 +22975,7 @@
       <c r="F672" t="s">
         <v>14</v>
       </c>
-      <c r="G672" t="s">
+      <c r="G672" s="2" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -22995,7 +22999,7 @@
       <c r="F673" t="s">
         <v>14</v>
       </c>
-      <c r="G673" t="s">
+      <c r="G673" s="2" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -23019,7 +23023,7 @@
       <c r="F674" t="s">
         <v>14</v>
       </c>
-      <c r="G674" t="s">
+      <c r="G674" s="2" t="s">
         <v>1929</v>
       </c>
     </row>
@@ -23043,7 +23047,7 @@
       <c r="F675" t="s">
         <v>14</v>
       </c>
-      <c r="G675" t="s">
+      <c r="G675" s="2" t="s">
         <v>1932</v>
       </c>
     </row>
@@ -23067,7 +23071,7 @@
       <c r="F676" t="s">
         <v>14</v>
       </c>
-      <c r="G676" t="s">
+      <c r="G676" s="2" t="s">
         <v>1933</v>
       </c>
     </row>
@@ -23091,7 +23095,7 @@
       <c r="F677" t="s">
         <v>14</v>
       </c>
-      <c r="G677" t="s">
+      <c r="G677" s="2" t="s">
         <v>1937</v>
       </c>
     </row>
@@ -23115,7 +23119,7 @@
       <c r="F678" t="s">
         <v>14</v>
       </c>
-      <c r="G678" t="s">
+      <c r="G678" s="2" t="s">
         <v>1940</v>
       </c>
     </row>
@@ -23139,7 +23143,7 @@
       <c r="F679" t="s">
         <v>641</v>
       </c>
-      <c r="G679" t="s">
+      <c r="G679" s="2" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -23163,7 +23167,7 @@
       <c r="F680" t="s">
         <v>879</v>
       </c>
-      <c r="G680" t="s">
+      <c r="G680" s="2" t="s">
         <v>1946</v>
       </c>
     </row>
@@ -23187,7 +23191,7 @@
       <c r="F681" t="s">
         <v>684</v>
       </c>
-      <c r="G681" t="s">
+      <c r="G681" s="2" t="s">
         <v>1949</v>
       </c>
     </row>
@@ -23211,7 +23215,7 @@
       <c r="F682" t="s">
         <v>117</v>
       </c>
-      <c r="G682" t="s">
+      <c r="G682" s="2" t="s">
         <v>1952</v>
       </c>
     </row>
@@ -23235,7 +23239,7 @@
       <c r="F683" t="s">
         <v>141</v>
       </c>
-      <c r="G683" t="s">
+      <c r="G683" s="2" t="s">
         <v>1955</v>
       </c>
     </row>
@@ -23259,7 +23263,7 @@
       <c r="F684" t="s">
         <v>146</v>
       </c>
-      <c r="G684" t="s">
+      <c r="G684" s="2" t="s">
         <v>1958</v>
       </c>
     </row>
@@ -23283,7 +23287,7 @@
       <c r="F685" t="s">
         <v>14</v>
       </c>
-      <c r="G685" t="s">
+      <c r="G685" s="2" t="s">
         <v>1962</v>
       </c>
     </row>
@@ -23307,7 +23311,7 @@
       <c r="F686" t="s">
         <v>14</v>
       </c>
-      <c r="G686" t="s">
+      <c r="G686" s="2" t="s">
         <v>1965</v>
       </c>
     </row>
@@ -23331,7 +23335,7 @@
       <c r="F687" t="s">
         <v>25</v>
       </c>
-      <c r="G687" t="s">
+      <c r="G687" s="2" t="s">
         <v>1968</v>
       </c>
     </row>
@@ -23355,7 +23359,7 @@
       <c r="F688" t="s">
         <v>14</v>
       </c>
-      <c r="G688" t="s">
+      <c r="G688" s="2" t="s">
         <v>1971</v>
       </c>
     </row>
@@ -23379,7 +23383,7 @@
       <c r="F689" t="s">
         <v>14</v>
       </c>
-      <c r="G689" t="s">
+      <c r="G689" s="2" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -23403,7 +23407,7 @@
       <c r="F690" t="s">
         <v>14</v>
       </c>
-      <c r="G690" t="s">
+      <c r="G690" s="2" t="s">
         <v>1977</v>
       </c>
     </row>
@@ -23427,7 +23431,7 @@
       <c r="F691" t="s">
         <v>510</v>
       </c>
-      <c r="G691" t="s">
+      <c r="G691" s="2" t="s">
         <v>1980</v>
       </c>
     </row>
@@ -23451,7 +23455,7 @@
       <c r="F692" t="s">
         <v>510</v>
       </c>
-      <c r="G692" t="s">
+      <c r="G692" s="2" t="s">
         <v>1983</v>
       </c>
     </row>
@@ -23475,7 +23479,7 @@
       <c r="F693" t="s">
         <v>1005</v>
       </c>
-      <c r="G693" t="s">
+      <c r="G693" s="2" t="s">
         <v>1986</v>
       </c>
     </row>
@@ -23499,7 +23503,7 @@
       <c r="F694" t="s">
         <v>383</v>
       </c>
-      <c r="G694" t="s">
+      <c r="G694" s="2" t="s">
         <v>1990</v>
       </c>
     </row>
@@ -23523,7 +23527,7 @@
       <c r="F695" t="s">
         <v>219</v>
       </c>
-      <c r="G695" t="s">
+      <c r="G695" s="2" t="s">
         <v>1992</v>
       </c>
     </row>
@@ -23547,7 +23551,7 @@
       <c r="F696" t="s">
         <v>14</v>
       </c>
-      <c r="G696" t="s">
+      <c r="G696" s="2" t="s">
         <v>1995</v>
       </c>
     </row>
@@ -23571,7 +23575,7 @@
       <c r="F697" t="s">
         <v>14</v>
       </c>
-      <c r="G697" t="s">
+      <c r="G697" s="2" t="s">
         <v>1998</v>
       </c>
     </row>
@@ -23595,7 +23599,7 @@
       <c r="F698" t="s">
         <v>694</v>
       </c>
-      <c r="G698" t="s">
+      <c r="G698" s="2" t="s">
         <v>2001</v>
       </c>
     </row>
@@ -23619,7 +23623,7 @@
       <c r="F699" t="s">
         <v>117</v>
       </c>
-      <c r="G699" t="s">
+      <c r="G699" s="2" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -23643,7 +23647,7 @@
       <c r="F700" t="s">
         <v>959</v>
       </c>
-      <c r="G700" t="s">
+      <c r="G700" s="2" t="s">
         <v>2005</v>
       </c>
     </row>
@@ -23667,7 +23671,7 @@
       <c r="F701" t="s">
         <v>1185</v>
       </c>
-      <c r="G701" t="s">
+      <c r="G701" s="2" t="s">
         <v>2007</v>
       </c>
     </row>
@@ -23691,7 +23695,7 @@
       <c r="F702" t="s">
         <v>1128</v>
       </c>
-      <c r="G702" t="s">
+      <c r="G702" s="2" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -23715,7 +23719,7 @@
       <c r="F703" t="s">
         <v>25</v>
       </c>
-      <c r="G703" t="s">
+      <c r="G703" s="2" t="s">
         <v>2012</v>
       </c>
     </row>
@@ -23739,7 +23743,7 @@
       <c r="F704" t="s">
         <v>14</v>
       </c>
-      <c r="G704" t="s">
+      <c r="G704" s="2" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -23763,7 +23767,7 @@
       <c r="F705" t="s">
         <v>383</v>
       </c>
-      <c r="G705" t="s">
+      <c r="G705" s="2" t="s">
         <v>2018</v>
       </c>
     </row>
@@ -23787,7 +23791,7 @@
       <c r="F706" t="s">
         <v>14</v>
       </c>
-      <c r="G706" t="s">
+      <c r="G706" s="2" t="s">
         <v>2021</v>
       </c>
     </row>
@@ -23811,7 +23815,7 @@
       <c r="F707" t="s">
         <v>366</v>
       </c>
-      <c r="G707" t="s">
+      <c r="G707" s="2" t="s">
         <v>2024</v>
       </c>
     </row>
@@ -23835,7 +23839,7 @@
       <c r="F708" t="s">
         <v>791</v>
       </c>
-      <c r="G708" t="s">
+      <c r="G708" s="2" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -23859,7 +23863,7 @@
       <c r="F709" t="s">
         <v>336</v>
       </c>
-      <c r="G709" t="s">
+      <c r="G709" s="2" t="s">
         <v>2030</v>
       </c>
     </row>
@@ -23883,7 +23887,7 @@
       <c r="F710" t="s">
         <v>141</v>
       </c>
-      <c r="G710" t="s">
+      <c r="G710" s="2" t="s">
         <v>2033</v>
       </c>
     </row>
@@ -23907,7 +23911,7 @@
       <c r="F711" t="s">
         <v>719</v>
       </c>
-      <c r="G711" t="s">
+      <c r="G711" s="2" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -23931,7 +23935,7 @@
       <c r="F712" t="s">
         <v>14</v>
       </c>
-      <c r="G712" t="s">
+      <c r="G712" s="2" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -23955,7 +23959,7 @@
       <c r="F713" t="s">
         <v>14</v>
       </c>
-      <c r="G713" t="s">
+      <c r="G713" s="2" t="s">
         <v>2041</v>
       </c>
     </row>
@@ -23979,7 +23983,7 @@
       <c r="F714" t="s">
         <v>366</v>
       </c>
-      <c r="G714" t="s">
+      <c r="G714" s="2" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24003,7 +24007,7 @@
       <c r="F715" t="s">
         <v>791</v>
       </c>
-      <c r="G715" t="s">
+      <c r="G715" s="2" t="s">
         <v>2047</v>
       </c>
     </row>
@@ -24027,7 +24031,7 @@
       <c r="F716" t="s">
         <v>982</v>
       </c>
-      <c r="G716" t="s">
+      <c r="G716" s="2" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -24051,7 +24055,7 @@
       <c r="F717" t="s">
         <v>289</v>
       </c>
-      <c r="G717" t="s">
+      <c r="G717" s="2" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -24075,7 +24079,7 @@
       <c r="F718" t="s">
         <v>14</v>
       </c>
-      <c r="G718" t="s">
+      <c r="G718" s="2" t="s">
         <v>2056</v>
       </c>
     </row>
@@ -24099,7 +24103,7 @@
       <c r="F719" t="s">
         <v>25</v>
       </c>
-      <c r="G719" t="s">
+      <c r="G719" s="2" t="s">
         <v>2059</v>
       </c>
     </row>
@@ -24123,7 +24127,7 @@
       <c r="F720" t="s">
         <v>92</v>
       </c>
-      <c r="G720" t="s">
+      <c r="G720" s="2" t="s">
         <v>2061</v>
       </c>
     </row>
@@ -24147,7 +24151,7 @@
       <c r="F721" t="s">
         <v>219</v>
       </c>
-      <c r="G721" t="s">
+      <c r="G721" s="2" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -24171,7 +24175,7 @@
       <c r="F722" t="s">
         <v>14</v>
       </c>
-      <c r="G722" t="s">
+      <c r="G722" s="2" t="s">
         <v>2066</v>
       </c>
     </row>
@@ -24195,7 +24199,7 @@
       <c r="F723" t="s">
         <v>89</v>
       </c>
-      <c r="G723" t="s">
+      <c r="G723" s="2" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -24219,7 +24223,7 @@
       <c r="F724" t="s">
         <v>89</v>
       </c>
-      <c r="G724" t="s">
+      <c r="G724" s="2" t="s">
         <v>2072</v>
       </c>
     </row>
@@ -24243,7 +24247,7 @@
       <c r="F725" t="s">
         <v>2074</v>
       </c>
-      <c r="G725" t="s">
+      <c r="G725" s="2" t="s">
         <v>2075</v>
       </c>
     </row>
@@ -24267,7 +24271,7 @@
       <c r="F726" t="s">
         <v>14</v>
       </c>
-      <c r="G726" t="s">
+      <c r="G726" s="2" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -24291,7 +24295,7 @@
       <c r="F727" t="s">
         <v>25</v>
       </c>
-      <c r="G727" t="s">
+      <c r="G727" s="2" t="s">
         <v>2081</v>
       </c>
     </row>
@@ -24315,7 +24319,7 @@
       <c r="F728" t="s">
         <v>366</v>
       </c>
-      <c r="G728" t="s">
+      <c r="G728" s="2" t="s">
         <v>2082</v>
       </c>
     </row>
@@ -24339,7 +24343,7 @@
       <c r="F729" t="s">
         <v>1602</v>
       </c>
-      <c r="G729" t="s">
+      <c r="G729" s="2" t="s">
         <v>2084</v>
       </c>
     </row>
@@ -24363,7 +24367,7 @@
       <c r="F730" t="s">
         <v>266</v>
       </c>
-      <c r="G730" t="s">
+      <c r="G730" s="2" t="s">
         <v>2088</v>
       </c>
     </row>
@@ -24387,7 +24391,7 @@
       <c r="F731" t="s">
         <v>266</v>
       </c>
-      <c r="G731" t="s">
+      <c r="G731" s="2" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24411,7 +24415,7 @@
       <c r="F732" t="s">
         <v>102</v>
       </c>
-      <c r="G732" t="s">
+      <c r="G732" s="2" t="s">
         <v>2094</v>
       </c>
     </row>
@@ -24435,7 +24439,7 @@
       <c r="F733" t="s">
         <v>102</v>
       </c>
-      <c r="G733" t="s">
+      <c r="G733" s="2" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24459,7 +24463,7 @@
       <c r="F734" t="s">
         <v>791</v>
       </c>
-      <c r="G734" t="s">
+      <c r="G734" s="2" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -24483,7 +24487,7 @@
       <c r="F735" t="s">
         <v>1103</v>
       </c>
-      <c r="G735" t="s">
+      <c r="G735" s="2" t="s">
         <v>2104</v>
       </c>
     </row>
@@ -24507,7 +24511,7 @@
       <c r="F736" t="s">
         <v>336</v>
       </c>
-      <c r="G736" t="s">
+      <c r="G736" s="2" t="s">
         <v>2107</v>
       </c>
     </row>
@@ -24531,7 +24535,7 @@
       <c r="F737" t="s">
         <v>276</v>
       </c>
-      <c r="G737" t="s">
+      <c r="G737" s="2" t="s">
         <v>2108</v>
       </c>
     </row>
@@ -24555,7 +24559,7 @@
       <c r="F738" t="s">
         <v>25</v>
       </c>
-      <c r="G738" t="s">
+      <c r="G738" s="2" t="s">
         <v>2114</v>
       </c>
     </row>
@@ -24579,7 +24583,7 @@
       <c r="F739" t="s">
         <v>18</v>
       </c>
-      <c r="G739" t="s">
+      <c r="G739" s="2" t="s">
         <v>2117</v>
       </c>
     </row>
@@ -24603,7 +24607,7 @@
       <c r="F740" t="s">
         <v>645</v>
       </c>
-      <c r="G740" t="s">
+      <c r="G740" s="2" t="s">
         <v>2120</v>
       </c>
     </row>
@@ -24627,7 +24631,7 @@
       <c r="F741" t="s">
         <v>383</v>
       </c>
-      <c r="G741" t="s">
+      <c r="G741" s="2" t="s">
         <v>2123</v>
       </c>
     </row>
@@ -24651,7 +24655,7 @@
       <c r="F742" t="s">
         <v>25</v>
       </c>
-      <c r="G742" t="s">
+      <c r="G742" s="2" t="s">
         <v>2126</v>
       </c>
     </row>
@@ -24675,7 +24679,7 @@
       <c r="F743" t="s">
         <v>671</v>
       </c>
-      <c r="G743" t="s">
+      <c r="G743" s="2" t="s">
         <v>2129</v>
       </c>
     </row>
@@ -24699,7 +24703,7 @@
       <c r="F744" t="s">
         <v>688</v>
       </c>
-      <c r="G744" t="s">
+      <c r="G744" s="2" t="s">
         <v>2132</v>
       </c>
     </row>
@@ -24723,7 +24727,7 @@
       <c r="F745" t="s">
         <v>117</v>
       </c>
-      <c r="G745" t="s">
+      <c r="G745" s="2" t="s">
         <v>2135</v>
       </c>
     </row>
@@ -24747,7 +24751,7 @@
       <c r="F746" t="s">
         <v>117</v>
       </c>
-      <c r="G746" t="s">
+      <c r="G746" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
@@ -24771,7 +24775,7 @@
       <c r="F747" t="s">
         <v>146</v>
       </c>
-      <c r="G747" t="s">
+      <c r="G747" s="2" t="s">
         <v>2140</v>
       </c>
     </row>
@@ -24795,7 +24799,7 @@
       <c r="F748" t="s">
         <v>2142</v>
       </c>
-      <c r="G748" t="s">
+      <c r="G748" s="2" t="s">
         <v>2143</v>
       </c>
     </row>
